--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1290 +397,1393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>23.3025819945529</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.79122495160312</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10.1316085788437</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>4.461083811705341</v>
+      </c>
+      <c r="F2">
         <v>9.222471903289474</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>23.62273574772212</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.9447669374665059</v>
       </c>
-      <c r="H2" t="n">
-        <v>69.01539011347782</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>73.47647392518317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>24.2747503963484</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2.19832153151292</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>9.731676661257762</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>5.001821243427199</v>
+      </c>
+      <c r="F3">
         <v>8.592825227161274</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>20.94846377628188</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.7267437980511584</v>
       </c>
-      <c r="H3" t="n">
-        <v>66.47278139061339</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>71.47460263404059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>25.70354335050239</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.11690221553096</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>9.864987300453073</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>4.596268169635806</v>
+      </c>
+      <c r="F4">
         <v>8.444673068072291</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>19.90846912072179</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>1.235464456686969</v>
       </c>
-      <c r="H4" t="n">
-        <v>67.27403951196747</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>71.87030768160328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>25.4531363379187</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.91335392557606</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>8.265259630109334</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>5.001821243427199</v>
+      </c>
+      <c r="F5">
         <v>9.629890340784188</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>13.66850118736123</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.9447669374665059</v>
       </c>
-      <c r="H5" t="n">
-        <v>59.87490835921601</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>64.87672960264322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>27.26490472308305</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.87264426758508</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>11.46471497079681</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>5.137005601357666</v>
+      </c>
+      <c r="F6">
         <v>8.88912954533925</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>16.49134382388149</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.9447669374665059</v>
       </c>
-      <c r="H6" t="n">
-        <v>66.92750426815219</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>72.06450986950986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>28.56112925881038</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.95406358356704</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>10.93147241401557</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="F7">
         <v>8.629863266933521</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>14.11421318260127</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>1.090115697076738</v>
       </c>
-      <c r="H7" t="n">
-        <v>65.28085740300452</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>70.14749428850125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>32.46453269026205</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.46554768767528</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>11.73133624918743</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>7.164770970314637</v>
+      </c>
+      <c r="F8">
         <v>8.259482869211054</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>8.319957244480751</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>1.380813216297201</v>
       </c>
-      <c r="H8" t="n">
-        <v>63.62166995711378</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>70.78644092742842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>35.48414666553596</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.18058008173842</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>10.1316085788437</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>10.13882684478486</v>
+      </c>
+      <c r="F9">
         <v>6.000162443103994</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>6.388538598440575</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.436046278830695</v>
       </c>
-      <c r="H9" t="n">
-        <v>59.62108264649334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>69.75990949127821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>36.04387998778187</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.38412837169332</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>7.998638351718709</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>10.81474863443719</v>
+      </c>
+      <c r="F10">
         <v>3.222309460185478</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>3.417125296840307</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.2180231394153475</v>
       </c>
-      <c r="H10" t="n">
-        <v>52.28410460763504</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>63.09885324207222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>23.27312234601362</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2.15761187352194</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4.799183011031226</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>8.922167623410681</v>
+      </c>
+      <c r="F11">
         <v>1.481521590889875</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>2.525701306360227</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.2906975192204635</v>
       </c>
-      <c r="H11" t="n">
-        <v>34.52783764703735</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>43.45000527044803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>20.0472908309649</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2.40186982146782</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>3.999319175859354</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>7.705508402036497</v>
+      </c>
+      <c r="F12">
         <v>1.77782590906785</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>2.2285599762002</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.2180231394153475</v>
       </c>
-      <c r="H12" t="n">
-        <v>30.67288885297548</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>38.37839725501198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>15.26009794333552</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.34341871370234</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>3.466076619078107</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>6.218480464801384</v>
+      </c>
+      <c r="F13">
         <v>1.222255312484147</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>1.634277315880147</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>22.92612590448026</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>29.14460636928164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>11.15047697210906</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.4248380296843</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2.799523423101549</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>3.109240232400692</v>
+      </c>
+      <c r="F14">
         <v>1.222255312484147</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>1.78284798096016</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.07267437980511587</v>
       </c>
-      <c r="H14" t="n">
-        <v>18.45261609814434</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>21.56185633054503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>6.98193670380409</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.3663869219188201</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.199795752757806</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>2.838871516539763</v>
+      </c>
+      <c r="F15">
         <v>0.6666847159004438</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>2.525701306360227</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.07267437980511587</v>
       </c>
-      <c r="H15" t="n">
-        <v>11.8131797805465</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>14.65205129708627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>4.905031481786416</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.8549028178105801</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.7998638351718708</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>1.351843579304649</v>
+      </c>
+      <c r="F16">
         <v>1.370407471573134</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>1.634277315880147</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.1453487596102317</v>
       </c>
-      <c r="H16" t="n">
-        <v>9.709831681832378</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>11.06167526113703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3.166912217970208</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.26199939772038</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.2666212783906237</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>1.000027073850666</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>2.67427197144024</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>8.369831939372119</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2.047445573478414</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.8549028178105801</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.9331744743671827</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.6666847159004438</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>3.417125296840307</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>7.919332878396927</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2.297852586062105</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.7327738438376401</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.7998638351718708</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>1.081474863443719</v>
+      </c>
+      <c r="F19">
         <v>0.8518749147616782</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>3.268554631760294</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>7.950919811593588</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>9.032394675037306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>4.109620971226459</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.48851589589176</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.866348948734365</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.5407374317218595</v>
+      </c>
+      <c r="F20">
         <v>1.703749829523356</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>4.159978622240375</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>12.32821426761632</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>12.86895169933818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>9.883712084920978</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.3663869219188201</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>3.999319175859354</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>5.001821243427199</v>
+      </c>
+      <c r="F21">
         <v>3.037119261324245</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>6.091397268280546</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.2180231394153475</v>
       </c>
-      <c r="H21" t="n">
-        <v>23.59595785171929</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>28.59777909514649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>18.78052594377683</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.52922555388274</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>8.531880908499959</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>13.38325143511602</v>
+      </c>
+      <c r="F22">
         <v>5.222363607886809</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>10.69708788576096</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.7267437980511584</v>
       </c>
-      <c r="H22" t="n">
-        <v>44.48782769785846</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>57.87107913297449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>30.22559940127845</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.5699352118737202</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>6.665531959765592</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>13.24806707718555</v>
+      </c>
+      <c r="F23">
         <v>6.074238522648489</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>13.51993052228121</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.6540694182460427</v>
       </c>
-      <c r="H23" t="n">
-        <v>57.70930503609352</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>70.95737211327906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>37.10442733519517</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.18058008173842</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>9.731676661257762</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>8.111061475827892</v>
+      </c>
+      <c r="F24">
         <v>7.444645994221622</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>16.49134382388149</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>1.453487596102317</v>
       </c>
-      <c r="H24" t="n">
-        <v>73.40616149239678</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>81.51722296822467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>26.98503806196009</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2.07619255753998</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>13.59768519792181</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>8.111061475827892</v>
+      </c>
+      <c r="F25">
         <v>8.370596988527794</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>21.98845843184197</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>2.034882634543244</v>
       </c>
-      <c r="H25" t="n">
-        <v>75.05285387233488</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>83.16391534816276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>22.83122761792476</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.38412837169332</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>14.53085967228899</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>4.325899453774876</v>
+      </c>
+      <c r="F26">
         <v>9.00024366465599</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>25.7027250588423</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>1.017441317271622</v>
       </c>
-      <c r="H26" t="n">
-        <v>74.46662570267698</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>78.79252515645186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>23.78866619545063</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.70980563562116</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>13.99761711550774</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="F27">
         <v>8.370596988527794</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>22.87988242232205</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.7994181778562742</v>
       </c>
-      <c r="H27" t="n">
-        <v>71.54598653528565</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>76.41262342078238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>25.18799950106537</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.6283863196392</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>14.26423839389836</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>4.461083811705341</v>
+      </c>
+      <c r="F28">
         <v>8.222444829438807</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>21.69131710168195</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>1.380813216297201</v>
       </c>
-      <c r="H28" t="n">
-        <v>72.37519936202089</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>76.83628317372623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>24.93759248848169</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.46554768767528</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>11.86464688838275</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="F29">
         <v>9.370624062378457</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>14.85706650800133</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>1.017441317271622</v>
       </c>
-      <c r="H29" t="n">
-        <v>63.51291895219113</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>68.37955583768786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>26.71990122510679</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.4248380296843</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>16.53051926021867</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>5.001821243427199</v>
+      </c>
+      <c r="F30">
         <v>8.666901306705768</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>17.97705047468162</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>1.017441317271622</v>
       </c>
-      <c r="H30" t="n">
-        <v>72.33665161366876</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>77.33847285709597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>27.98666611229488</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.50625734566626</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>15.73065542504679</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>4.731452527566271</v>
+      </c>
+      <c r="F31">
         <v>8.407635028300041</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>15.45134916832139</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>1.162790076881854</v>
       </c>
-      <c r="H31" t="n">
-        <v>70.24535315651121</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>74.97680568407748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>31.81642042239838</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.13987042374744</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>16.9304511778046</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>6.894402254453707</v>
+      </c>
+      <c r="F32">
         <v>8.037254630577571</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>9.062810569880812</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>1.526161975907433</v>
       </c>
-      <c r="H32" t="n">
-        <v>68.51296920031623</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>75.40737145476993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>34.77711510059376</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.89561247580156</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>14.53085967228899</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>9.868458128923937</v>
+      </c>
+      <c r="F33">
         <v>5.852010284015006</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>6.982821258760627</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.508720658635811</v>
       </c>
-      <c r="H33" t="n">
-        <v>63.54713945009576</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>73.41559757901969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>35.32211859857005</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.05845110776548</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>11.46471497079681</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>10.54437991857626</v>
+      </c>
+      <c r="F34">
         <v>3.148233380640984</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>3.714266627000334</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.2180231394153475</v>
       </c>
-      <c r="H34" t="n">
-        <v>54.92580782418901</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>65.47018774276526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>22.8017679693855</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.66909597763018</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>6.932153238156213</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>8.651798907549752</v>
+      </c>
+      <c r="F35">
         <v>1.444483551117628</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>2.822842636520253</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.2906975192204635</v>
       </c>
-      <c r="H35" t="n">
-        <v>35.96104089203025</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>44.61283979957999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>19.64958557568492</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.8319346095941</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>5.732357485398407</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>7.435139686175567</v>
+      </c>
+      <c r="F36">
         <v>1.740787869295603</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>2.377130641280214</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.2180231394153475</v>
       </c>
-      <c r="H36" t="n">
-        <v>31.54981932066859</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>38.98495900684416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>14.95077163367332</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.0177414497745</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>4.932493650226537</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>6.083296106870919</v>
+      </c>
+      <c r="F37">
         <v>1.1852172727119</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>1.78284798096016</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>23.86907198734641</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>29.95236809421733</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>10.92952960806464</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.09916076575646</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>3.999319175859354</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>2.974055874470228</v>
+      </c>
+      <c r="F38">
         <v>1.1852172727119</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>1.931418646040174</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.07267437980511587</v>
       </c>
-      <c r="H38" t="n">
-        <v>19.21731984823764</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>22.19137572270787</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>6.834638461107801</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.2849676059368601</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1.733038309539053</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>2.703687158609297</v>
+      </c>
+      <c r="F39">
         <v>0.6666847159004438</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>2.822842636520253</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.07267437980511587</v>
       </c>
-      <c r="H39" t="n">
-        <v>12.41484610880953</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>15.11853326741882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>4.801922711899015</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.6513545278556802</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>1.199795752757806</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>1.351843579304649</v>
+      </c>
+      <c r="F40">
         <v>1.333369431800888</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>1.78284798096016</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.1453487596102317</v>
       </c>
-      <c r="H40" t="n">
-        <v>9.914639164883781</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>11.26648274418843</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>3.107992920891694</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.9770317917835201</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.3999319175859354</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.9629890340784187</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>2.971413301600267</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>8.419358965939836</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>2.003256100669527</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.6513545278556802</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>1.333106391953118</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>0.6666847159004438</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>3.714266627000334</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>8.368668363379104</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2.253663113253219</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.5699352118737202</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>1.199795752757806</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>1.081474863443719</v>
+      </c>
+      <c r="F43">
         <v>0.8148368749894315</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>3.565695961920321</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>8.403926914794498</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>9.485401778238217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>4.021242025608685</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.3663869219188201</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>2.666212783906236</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.5407374317218595</v>
+      </c>
+      <c r="F44">
         <v>1.666711789751109</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>4.605690617480414</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>13.32624413866526</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>13.86698157038712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>9.67749454514618</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.2849676059368601</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>5.732357485398407</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>4.866636885496734</v>
+      </c>
+      <c r="F45">
         <v>2.96304318177975</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>6.6856799286006</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.2180231394153475</v>
       </c>
-      <c r="H45" t="n">
-        <v>25.56156588627714</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>30.42820277177388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>18.39755051276646</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.4070965799098</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>12.26457880596869</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>12.97769836132463</v>
+      </c>
+      <c r="F46">
         <v>5.074211448797822</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>11.58851187624104</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.7994181778562742</v>
       </c>
-      <c r="H46" t="n">
-        <v>48.53136740154009</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>61.50906576286472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>29.62167660622367</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.44780623790078</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>9.598366022062452</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>12.84251400339416</v>
+      </c>
+      <c r="F47">
         <v>5.9260863635595</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>14.70849584292132</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.7267437980511584</v>
       </c>
-      <c r="H47" t="n">
-        <v>61.02917487071888</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>73.87168887411303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>36.35320629744407</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.89561247580156</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>13.99761711550774</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>7.840692759966965</v>
+      </c>
+      <c r="F48">
         <v>7.259455795360387</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>17.97705047468162</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>1.598836355712548</v>
       </c>
-      <c r="H48" t="n">
-        <v>78.08177851450795</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>85.9224712744749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>26.44003456398384</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.58767666164822</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>19.59666396171084</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>7.840692759966965</v>
+      </c>
+      <c r="F49">
         <v>8.148368749894313</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>23.91987707788214</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>2.252905773958592</v>
       </c>
-      <c r="H49" t="n">
-        <v>81.94552678907795</v>
+      <c r="I49">
+        <v>89.7862195490449</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>23.3025819945529</v>
+        <v>71.67980545092504</v>
       </c>
       <c r="C2">
-        <v>1.79122495160312</v>
+        <v>5.509889680026329</v>
       </c>
       <c r="D2">
-        <v>10.1316085788437</v>
+        <v>31.16529026724164</v>
       </c>
       <c r="E2">
-        <v>4.461083811705341</v>
+        <v>13.72249735235597</v>
       </c>
       <c r="F2">
-        <v>9.222471903289474</v>
+        <v>28.36874437171551</v>
       </c>
       <c r="G2">
-        <v>23.62273574772212</v>
+        <v>72.66461300344942</v>
       </c>
       <c r="H2">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I2">
-        <v>73.47647392518317</v>
+        <v>226.0169863325976</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>24.2747503963484</v>
+        <v>74.67023981234166</v>
       </c>
       <c r="C3">
-        <v>2.19832153151292</v>
+        <v>6.762137334577766</v>
       </c>
       <c r="D3">
-        <v>9.731676661257762</v>
+        <v>29.93508144090316</v>
       </c>
       <c r="E3">
-        <v>5.001821243427199</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="F3">
-        <v>8.592825227161274</v>
+        <v>26.43192246681928</v>
       </c>
       <c r="G3">
-        <v>20.94846377628188</v>
+        <v>64.43843039928535</v>
       </c>
       <c r="H3">
-        <v>0.7267437980511584</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="I3">
-        <v>71.47460263404059</v>
+        <v>219.8591389009082</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>25.70354335050239</v>
+        <v>79.06527213139331</v>
       </c>
       <c r="C4">
-        <v>2.11690221553096</v>
+        <v>6.511687803667479</v>
       </c>
       <c r="D4">
-        <v>9.864987300453073</v>
+        <v>30.34515104968265</v>
       </c>
       <c r="E4">
-        <v>4.596268169635806</v>
+        <v>14.13833060545767</v>
       </c>
       <c r="F4">
-        <v>8.444673068072291</v>
+        <v>25.97619966566723</v>
       </c>
       <c r="G4">
-        <v>19.90846912072179</v>
+        <v>61.23935938655483</v>
       </c>
       <c r="H4">
-        <v>1.235464456686969</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="I4">
-        <v>71.87030768160328</v>
+        <v>221.0763456821941</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>25.4531363379187</v>
+        <v>78.29500873527086</v>
       </c>
       <c r="C5">
-        <v>1.91335392557606</v>
+        <v>5.885563976391759</v>
       </c>
       <c r="D5">
-        <v>8.265259630109334</v>
+        <v>25.4243157443287</v>
       </c>
       <c r="E5">
-        <v>5.001821243427199</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="F5">
-        <v>9.629890340784188</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="G5">
-        <v>13.66850118736123</v>
+        <v>42.04493331017199</v>
       </c>
       <c r="H5">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I5">
-        <v>64.87672960264322</v>
+        <v>199.5637804126934</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>27.26490472308305</v>
+        <v>83.86809095427448</v>
       </c>
       <c r="C6">
-        <v>1.87264426758508</v>
+        <v>5.760339210936616</v>
       </c>
       <c r="D6">
-        <v>11.46471497079681</v>
+        <v>35.2659863550366</v>
       </c>
       <c r="E6">
-        <v>5.137005601357666</v>
+        <v>15.80166361786445</v>
       </c>
       <c r="F6">
-        <v>8.88912954533925</v>
+        <v>27.3433680691234</v>
       </c>
       <c r="G6">
-        <v>16.49134382388149</v>
+        <v>50.72812605901185</v>
       </c>
       <c r="H6">
-        <v>0.9447669374665059</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I6">
-        <v>72.06450986950986</v>
+        <v>221.6737204731311</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>28.56112925881038</v>
+        <v>87.85533676949662</v>
       </c>
       <c r="C7">
-        <v>1.95406358356704</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="D7">
-        <v>10.93147241401557</v>
+        <v>33.62570791991861</v>
       </c>
       <c r="E7">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F7">
-        <v>8.629863266933521</v>
+        <v>26.5458531671073</v>
       </c>
       <c r="G7">
-        <v>14.11421318260127</v>
+        <v>43.41596374419932</v>
       </c>
       <c r="H7">
-        <v>1.090115697076738</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="I7">
-        <v>70.14749428850125</v>
+        <v>215.7768930775571</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>32.46453269026205</v>
+        <v>99.86238382669966</v>
       </c>
       <c r="C8">
-        <v>1.46554768767528</v>
+        <v>4.508091556385176</v>
       </c>
       <c r="D8">
-        <v>11.73133624918743</v>
+        <v>36.08612557259559</v>
       </c>
       <c r="E8">
-        <v>7.164770970314637</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="F8">
-        <v>8.259482869211054</v>
+        <v>25.40654616422716</v>
       </c>
       <c r="G8">
-        <v>8.319957244480751</v>
+        <v>25.59256810184381</v>
       </c>
       <c r="H8">
-        <v>1.380813216297201</v>
+        <v>4.247444456214585</v>
       </c>
       <c r="I8">
-        <v>70.78644092742842</v>
+        <v>217.7423220923559</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>35.48414666553596</v>
+        <v>109.1508541917057</v>
       </c>
       <c r="C9">
-        <v>1.18058008173842</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="D9">
-        <v>10.1316085788437</v>
+        <v>31.16529026724164</v>
       </c>
       <c r="E9">
-        <v>10.13882684478486</v>
+        <v>31.1874939826272</v>
       </c>
       <c r="F9">
-        <v>6.000162443103994</v>
+        <v>18.4567734466583</v>
       </c>
       <c r="G9">
-        <v>6.388538598440575</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="H9">
-        <v>0.436046278830695</v>
+        <v>1.341298249330922</v>
       </c>
       <c r="I9">
-        <v>69.75990949127821</v>
+        <v>214.5846645568216</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>36.04387998778187</v>
+        <v>110.872619430097</v>
       </c>
       <c r="C10">
-        <v>1.38412837169332</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D10">
-        <v>7.998638351718709</v>
+        <v>24.60417652676972</v>
       </c>
       <c r="E10">
-        <v>10.81474863443719</v>
+        <v>33.26666024813569</v>
       </c>
       <c r="F10">
-        <v>3.222309460185478</v>
+        <v>9.911970925057233</v>
       </c>
       <c r="G10">
-        <v>3.417125296840307</v>
+        <v>10.511233327543</v>
       </c>
       <c r="H10">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I10">
-        <v>63.09885324207222</v>
+        <v>194.094951607743</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>23.27312234601362</v>
+        <v>71.58918622785183</v>
       </c>
       <c r="C11">
-        <v>2.15761187352194</v>
+        <v>6.63691256912262</v>
       </c>
       <c r="D11">
-        <v>4.799183011031226</v>
+        <v>14.76250591606183</v>
       </c>
       <c r="E11">
-        <v>8.922167623410681</v>
+        <v>27.44499470471195</v>
       </c>
       <c r="F11">
-        <v>1.481521590889875</v>
+        <v>4.557228011520565</v>
       </c>
       <c r="G11">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H11">
-        <v>0.2906975192204635</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="I11">
-        <v>43.45000527044803</v>
+        <v>133.6541987216443</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>20.0472908309649</v>
+        <v>61.66638130133312</v>
       </c>
       <c r="C12">
-        <v>2.40186982146782</v>
+        <v>7.388261161853484</v>
       </c>
       <c r="D12">
-        <v>3.999319175859354</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="E12">
-        <v>7.705508402036497</v>
+        <v>23.70249542679668</v>
       </c>
       <c r="F12">
-        <v>1.77782590906785</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="G12">
-        <v>2.2285599762002</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H12">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I12">
-        <v>38.37839725501198</v>
+        <v>118.053701061995</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>15.26009794333552</v>
+        <v>46.9407575519332</v>
       </c>
       <c r="C13">
-        <v>1.34341871370234</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="D13">
-        <v>3.466076619078107</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="E13">
-        <v>6.218480464801384</v>
+        <v>19.12832964267803</v>
       </c>
       <c r="F13">
-        <v>1.222255312484147</v>
+        <v>3.759713109504467</v>
       </c>
       <c r="G13">
-        <v>1.634277315880147</v>
+        <v>5.027111591433607</v>
       </c>
       <c r="I13">
-        <v>29.14460636928164</v>
+        <v>89.65013898383592</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>11.15047697210906</v>
+        <v>34.2993759332176</v>
       </c>
       <c r="C14">
-        <v>1.4248380296843</v>
+        <v>4.382866790930033</v>
       </c>
       <c r="D14">
-        <v>2.799523423101549</v>
+        <v>8.611461784369403</v>
       </c>
       <c r="E14">
-        <v>3.109240232400692</v>
+        <v>9.564164821339013</v>
       </c>
       <c r="F14">
-        <v>1.222255312484147</v>
+        <v>3.759713109504467</v>
       </c>
       <c r="G14">
-        <v>1.78284798096016</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="H14">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I14">
-        <v>21.56185633054503</v>
+        <v>66.32525388369173</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>6.98193670380409</v>
+        <v>21.47675586835553</v>
       </c>
       <c r="C15">
-        <v>0.3663869219188201</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="D15">
-        <v>1.199795752757806</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="E15">
-        <v>2.838871516539763</v>
+        <v>8.732498315135619</v>
       </c>
       <c r="F15">
-        <v>0.6666847159004438</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="G15">
-        <v>2.525701306360227</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H15">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I15">
-        <v>14.65205129708627</v>
+        <v>45.07037832449728</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>4.905031481786416</v>
+        <v>15.08810064169281</v>
       </c>
       <c r="C16">
-        <v>0.8549028178105801</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="D16">
-        <v>0.7998638351718708</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="E16">
-        <v>1.351843579304649</v>
+        <v>4.158332531016962</v>
       </c>
       <c r="F16">
-        <v>1.370407471573134</v>
+        <v>4.215435910656525</v>
       </c>
       <c r="G16">
-        <v>1.634277315880147</v>
+        <v>5.027111591433607</v>
       </c>
       <c r="H16">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I16">
-        <v>11.06167526113703</v>
+        <v>34.02621781847854</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>3.166912217970208</v>
+        <v>9.741566480372235</v>
       </c>
       <c r="C17">
-        <v>1.26199939772038</v>
+        <v>3.881967729109458</v>
       </c>
       <c r="D17">
-        <v>0.2666212783906237</v>
+        <v>0.8201392175589906</v>
       </c>
       <c r="F17">
-        <v>1.000027073850666</v>
+        <v>3.076128907776382</v>
       </c>
       <c r="G17">
-        <v>2.67427197144024</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="I17">
-        <v>8.369831939372119</v>
+        <v>25.74598493898115</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.047445573478414</v>
+        <v>6.298036003589494</v>
       </c>
       <c r="C18">
-        <v>0.8549028178105801</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="D18">
-        <v>0.9331744743671827</v>
+        <v>2.870487261456466</v>
       </c>
       <c r="F18">
-        <v>0.6666847159004438</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="G18">
-        <v>3.417125296840307</v>
+        <v>10.511233327543</v>
       </c>
       <c r="I18">
-        <v>7.919332878396927</v>
+        <v>24.36022927233123</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.297852586062105</v>
+        <v>7.068299399711948</v>
       </c>
       <c r="C19">
-        <v>0.7327738438376401</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D19">
-        <v>0.7998638351718708</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="E19">
-        <v>1.081474863443719</v>
+        <v>3.326666024813569</v>
       </c>
       <c r="F19">
-        <v>0.8518749147616782</v>
+        <v>2.620406106624326</v>
       </c>
       <c r="G19">
-        <v>3.268554631760294</v>
+        <v>10.05422318286721</v>
       </c>
       <c r="I19">
-        <v>9.032394675037306</v>
+        <v>27.78405814488661</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>4.109620971226459</v>
+        <v>12.64138161871561</v>
       </c>
       <c r="C20">
-        <v>0.48851589589176</v>
+        <v>1.502697185461725</v>
       </c>
       <c r="D20">
-        <v>1.866348948734365</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="E20">
-        <v>0.5407374317218595</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="F20">
-        <v>1.703749829523356</v>
+        <v>5.240812213248653</v>
       </c>
       <c r="G20">
-        <v>4.159978622240375</v>
+        <v>12.7962840509219</v>
       </c>
       <c r="I20">
-        <v>12.86895169933818</v>
+        <v>39.58548260366761</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>9.883712084920978</v>
+        <v>30.40274934106872</v>
       </c>
       <c r="C21">
-        <v>0.3663869219188201</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="D21">
-        <v>3.999319175859354</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="E21">
-        <v>5.001821243427199</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="F21">
-        <v>3.037119261324245</v>
+        <v>9.342317423617162</v>
       </c>
       <c r="G21">
-        <v>6.091397268280546</v>
+        <v>18.73741593170709</v>
       </c>
       <c r="H21">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I21">
-        <v>28.59777909514649</v>
+        <v>87.96807333830233</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>18.78052594377683</v>
+        <v>57.76975470918422</v>
       </c>
       <c r="C22">
-        <v>0.52922555388274</v>
+        <v>1.62792195091687</v>
       </c>
       <c r="D22">
-        <v>8.531880908499959</v>
+        <v>26.2444549618877</v>
       </c>
       <c r="E22">
-        <v>13.38325143511602</v>
+        <v>41.16749205706792</v>
       </c>
       <c r="F22">
-        <v>5.222363607886809</v>
+        <v>16.06422874061</v>
       </c>
       <c r="G22">
-        <v>10.69708788576096</v>
+        <v>32.90473041665635</v>
       </c>
       <c r="H22">
-        <v>0.7267437980511584</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="I22">
-        <v>57.87107913297449</v>
+        <v>178.0140799185413</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>30.22559940127845</v>
+        <v>92.97532287313415</v>
       </c>
       <c r="C23">
-        <v>0.5699352118737202</v>
+        <v>1.753146716372014</v>
       </c>
       <c r="D23">
-        <v>6.665531959765592</v>
+        <v>20.50348043897477</v>
       </c>
       <c r="E23">
-        <v>13.24806707718555</v>
+        <v>40.75165880396622</v>
       </c>
       <c r="F23">
-        <v>6.074238522648489</v>
+        <v>18.68463484723432</v>
       </c>
       <c r="G23">
-        <v>13.51993052228121</v>
+        <v>41.5879231654962</v>
       </c>
       <c r="H23">
-        <v>0.6540694182460427</v>
+        <v>2.011947373996382</v>
       </c>
       <c r="I23">
-        <v>70.95737211327906</v>
+        <v>218.268114219174</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>37.10442733519517</v>
+        <v>114.1349114607334</v>
       </c>
       <c r="C24">
-        <v>1.18058008173842</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="D24">
-        <v>9.731676661257762</v>
+        <v>29.93508144090316</v>
       </c>
       <c r="E24">
-        <v>8.111061475827892</v>
+        <v>24.94999518610176</v>
       </c>
       <c r="F24">
-        <v>7.444645994221622</v>
+        <v>22.90007075789084</v>
       </c>
       <c r="G24">
-        <v>16.49134382388149</v>
+        <v>50.72812605901185</v>
       </c>
       <c r="H24">
-        <v>1.453487596102317</v>
+        <v>4.470994164436404</v>
       </c>
       <c r="I24">
-        <v>81.51722296822467</v>
+        <v>250.7506972672766</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>26.98503806196009</v>
+        <v>83.00720833507883</v>
       </c>
       <c r="C25">
-        <v>2.07619255753998</v>
+        <v>6.386463038212333</v>
       </c>
       <c r="D25">
-        <v>13.59768519792181</v>
+        <v>41.82710009550852</v>
       </c>
       <c r="E25">
-        <v>8.111061475827892</v>
+        <v>24.94999518610176</v>
       </c>
       <c r="F25">
-        <v>8.370596988527794</v>
+        <v>25.7483382650912</v>
       </c>
       <c r="G25">
-        <v>21.98845843184197</v>
+        <v>67.63750141201582</v>
       </c>
       <c r="H25">
-        <v>2.034882634543244</v>
+        <v>6.259391830210967</v>
       </c>
       <c r="I25">
-        <v>83.16391534816276</v>
+        <v>255.8159981622194</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>22.83122761792476</v>
+        <v>70.22989788175336</v>
       </c>
       <c r="C26">
-        <v>1.38412837169332</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D26">
-        <v>14.53085967228899</v>
+        <v>44.69758735696497</v>
       </c>
       <c r="E26">
-        <v>4.325899453774876</v>
+        <v>13.30666409925428</v>
       </c>
       <c r="F26">
-        <v>9.00024366465599</v>
+        <v>27.68516016998744</v>
       </c>
       <c r="G26">
-        <v>25.7027250588423</v>
+        <v>79.06275502891042</v>
       </c>
       <c r="H26">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I26">
-        <v>78.79252515645186</v>
+        <v>242.3694024774508</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>23.78866619545063</v>
+        <v>73.17502263163335</v>
       </c>
       <c r="C27">
-        <v>1.70980563562116</v>
+        <v>5.25944014911604</v>
       </c>
       <c r="D27">
-        <v>13.99761711550774</v>
+        <v>43.057308921847</v>
       </c>
       <c r="E27">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F27">
-        <v>8.370596988527794</v>
+        <v>25.7483382650912</v>
       </c>
       <c r="G27">
-        <v>22.87988242232205</v>
+        <v>70.37956228007049</v>
       </c>
       <c r="H27">
-        <v>0.7994181778562742</v>
+        <v>2.459046790440023</v>
       </c>
       <c r="I27">
-        <v>76.41262342078238</v>
+        <v>235.0487161498592</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>25.18799950106537</v>
+        <v>77.47943572761179</v>
       </c>
       <c r="C28">
-        <v>1.6283863196392</v>
+        <v>5.008990618205752</v>
       </c>
       <c r="D28">
-        <v>14.26423839389836</v>
+        <v>43.877448139406</v>
       </c>
       <c r="E28">
-        <v>4.461083811705341</v>
+        <v>13.72249735235597</v>
       </c>
       <c r="F28">
-        <v>8.222444829438807</v>
+        <v>25.29261546393915</v>
       </c>
       <c r="G28">
-        <v>21.69131710168195</v>
+        <v>66.72348112266425</v>
       </c>
       <c r="H28">
-        <v>1.380813216297201</v>
+        <v>4.247444456214585</v>
       </c>
       <c r="I28">
-        <v>76.83628317372623</v>
+        <v>236.3519128803975</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>24.93759248848169</v>
+        <v>76.70917233148931</v>
       </c>
       <c r="C29">
-        <v>1.46554768767528</v>
+        <v>4.508091556385176</v>
       </c>
       <c r="D29">
-        <v>11.86464688838275</v>
+        <v>36.49619518137508</v>
       </c>
       <c r="E29">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F29">
-        <v>9.370624062378457</v>
+        <v>28.82446717286758</v>
       </c>
       <c r="G29">
-        <v>14.85706650800133</v>
+        <v>45.70101446757823</v>
       </c>
       <c r="H29">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I29">
-        <v>68.37955583768786</v>
+        <v>210.3386337364619</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>26.71990122510679</v>
+        <v>82.19163532741969</v>
       </c>
       <c r="C30">
-        <v>1.4248380296843</v>
+        <v>4.382866790930033</v>
       </c>
       <c r="D30">
-        <v>16.53051926021867</v>
+        <v>50.8486314886574</v>
       </c>
       <c r="E30">
-        <v>5.001821243427199</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="F30">
-        <v>8.666901306705768</v>
+        <v>26.65978386739531</v>
       </c>
       <c r="G30">
-        <v>17.97705047468162</v>
+        <v>55.29822750576968</v>
       </c>
       <c r="H30">
-        <v>1.017441317271622</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I30">
-        <v>77.33847285709597</v>
+        <v>237.8966712600404</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>27.98666611229488</v>
+        <v>86.08826191956862</v>
       </c>
       <c r="C31">
-        <v>1.50625734566626</v>
+        <v>4.63331632184032</v>
       </c>
       <c r="D31">
-        <v>15.73065542504679</v>
+        <v>48.38821383598044</v>
       </c>
       <c r="E31">
-        <v>4.731452527566271</v>
+        <v>14.55416385855936</v>
       </c>
       <c r="F31">
-        <v>8.407635028300041</v>
+        <v>25.86226896537922</v>
       </c>
       <c r="G31">
-        <v>15.45134916832139</v>
+        <v>47.52905504628138</v>
       </c>
       <c r="H31">
-        <v>1.162790076881854</v>
+        <v>3.576795331549124</v>
       </c>
       <c r="I31">
-        <v>74.97680568407748</v>
+        <v>230.6320752791585</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>31.81642042239838</v>
+        <v>97.86876091908853</v>
       </c>
       <c r="C32">
-        <v>1.13987042374744</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="D32">
-        <v>16.9304511778046</v>
+        <v>52.07884031499592</v>
       </c>
       <c r="E32">
-        <v>6.894402254453707</v>
+        <v>21.20749590818649</v>
       </c>
       <c r="F32">
-        <v>8.037254630577571</v>
+        <v>24.72296196249907</v>
       </c>
       <c r="G32">
-        <v>9.062810569880812</v>
+        <v>27.87761882522273</v>
       </c>
       <c r="H32">
-        <v>1.526161975907433</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="I32">
-        <v>75.40737145476993</v>
+        <v>231.956515235395</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>34.77711510059376</v>
+        <v>106.9759928379481</v>
       </c>
       <c r="C33">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D33">
-        <v>14.53085967228899</v>
+        <v>44.69758735696497</v>
       </c>
       <c r="E33">
-        <v>9.868458128923937</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="F33">
-        <v>5.852010284015006</v>
+        <v>18.00105064550624</v>
       </c>
       <c r="G33">
-        <v>6.982821258760627</v>
+        <v>21.47947679976178</v>
       </c>
       <c r="H33">
-        <v>0.508720658635811</v>
+        <v>1.564847957552742</v>
       </c>
       <c r="I33">
-        <v>73.41559757901969</v>
+        <v>225.8297279141709</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>35.32211859857005</v>
+        <v>108.6524484648029</v>
       </c>
       <c r="C34">
-        <v>1.05845110776548</v>
+        <v>3.255843901833739</v>
       </c>
       <c r="D34">
-        <v>11.46471497079681</v>
+        <v>35.2659863550366</v>
       </c>
       <c r="E34">
-        <v>10.54437991857626</v>
+        <v>32.43499374193229</v>
       </c>
       <c r="F34">
-        <v>3.148233380640984</v>
+        <v>9.684109524481205</v>
       </c>
       <c r="G34">
-        <v>3.714266627000334</v>
+        <v>11.42525361689456</v>
       </c>
       <c r="H34">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I34">
-        <v>65.47018774276526</v>
+        <v>201.3892847296468</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>22.8017679693855</v>
+        <v>70.13927865868013</v>
       </c>
       <c r="C35">
-        <v>1.66909597763018</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="D35">
-        <v>6.932153238156213</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="E35">
-        <v>8.651798907549752</v>
+        <v>26.61332819850855</v>
       </c>
       <c r="F35">
-        <v>1.444483551117628</v>
+        <v>4.443297311232553</v>
       </c>
       <c r="G35">
-        <v>2.822842636520253</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="H35">
-        <v>0.2906975192204635</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="I35">
-        <v>44.61283979957999</v>
+        <v>137.231130790343</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>19.64958557568492</v>
+        <v>60.4430217898445</v>
       </c>
       <c r="C36">
-        <v>1.8319346095941</v>
+        <v>5.63511444548147</v>
       </c>
       <c r="D36">
-        <v>5.732357485398407</v>
+        <v>17.6329931775183</v>
       </c>
       <c r="E36">
-        <v>7.435139686175567</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="F36">
-        <v>1.740787869295603</v>
+        <v>5.354742913536665</v>
       </c>
       <c r="G36">
-        <v>2.377130641280214</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="H36">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I36">
-        <v>38.98495900684416</v>
+        <v>119.9195126864522</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>14.95077163367332</v>
+        <v>45.98925570966428</v>
       </c>
       <c r="C37">
-        <v>1.0177414497745</v>
+        <v>3.130619136378595</v>
       </c>
       <c r="D37">
-        <v>4.932493650226537</v>
+        <v>15.17257552484132</v>
       </c>
       <c r="E37">
-        <v>6.083296106870919</v>
+        <v>18.71249638957633</v>
       </c>
       <c r="F37">
-        <v>1.1852172727119</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="G37">
-        <v>1.78284798096016</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="I37">
-        <v>29.95236809421733</v>
+        <v>92.13485090578638</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>10.92952960806464</v>
+        <v>33.61973176016837</v>
       </c>
       <c r="C38">
-        <v>1.09916076575646</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="D38">
-        <v>3.999319175859354</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="E38">
-        <v>2.974055874470228</v>
+        <v>9.148331568237312</v>
       </c>
       <c r="F38">
-        <v>1.1852172727119</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="G38">
-        <v>1.931418646040174</v>
+        <v>5.941131880785172</v>
       </c>
       <c r="H38">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I38">
-        <v>22.19137572270787</v>
+        <v>68.26168425730287</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>6.834638461107801</v>
+        <v>21.02365975298938</v>
       </c>
       <c r="C39">
-        <v>0.2849676059368601</v>
+        <v>0.8765733581860068</v>
       </c>
       <c r="D39">
-        <v>1.733038309539053</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="E39">
-        <v>2.703687158609297</v>
+        <v>8.316665062033923</v>
       </c>
       <c r="F39">
-        <v>0.6666847159004438</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="G39">
-        <v>2.822842636520253</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="H39">
-        <v>0.07267437980511587</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I39">
-        <v>15.11853326741882</v>
+        <v>46.5052981495887</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>4.801922711899015</v>
+        <v>14.77093336093651</v>
       </c>
       <c r="C40">
-        <v>0.6513545278556802</v>
+        <v>2.003596247282301</v>
       </c>
       <c r="D40">
-        <v>1.199795752757806</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="E40">
-        <v>1.351843579304649</v>
+        <v>4.158332531016962</v>
       </c>
       <c r="F40">
-        <v>1.333369431800888</v>
+        <v>4.10150521036851</v>
       </c>
       <c r="G40">
-        <v>1.78284798096016</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="H40">
-        <v>0.1453487596102317</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I40">
-        <v>11.26648274418843</v>
+        <v>34.65621498117277</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>3.107992920891694</v>
+        <v>9.560328034225781</v>
       </c>
       <c r="C41">
-        <v>0.9770317917835201</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="D41">
-        <v>0.3999319175859354</v>
+        <v>1.230208826338486</v>
       </c>
       <c r="F41">
-        <v>0.9629890340784187</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G41">
-        <v>2.971413301600267</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="I41">
-        <v>8.419358965939836</v>
+        <v>25.89833233249173</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>2.003256100669527</v>
+        <v>6.162107168979647</v>
       </c>
       <c r="C42">
-        <v>0.6513545278556802</v>
+        <v>2.003596247282301</v>
       </c>
       <c r="D42">
-        <v>1.333106391953118</v>
+        <v>4.100696087794953</v>
       </c>
       <c r="F42">
-        <v>0.6666847159004438</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="G42">
-        <v>3.714266627000334</v>
+        <v>11.42525361689456</v>
       </c>
       <c r="I42">
-        <v>8.368668363379104</v>
+        <v>25.74240572613571</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>2.253663113253219</v>
+        <v>6.932370565102105</v>
       </c>
       <c r="C43">
-        <v>0.5699352118737202</v>
+        <v>1.753146716372014</v>
       </c>
       <c r="D43">
-        <v>1.199795752757806</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="E43">
-        <v>1.081474863443719</v>
+        <v>3.326666024813569</v>
       </c>
       <c r="F43">
-        <v>0.8148368749894315</v>
+        <v>2.506475406336311</v>
       </c>
       <c r="G43">
-        <v>3.565695961920321</v>
+        <v>10.96824347221878</v>
       </c>
       <c r="I43">
-        <v>9.485401778238217</v>
+        <v>29.17752866385824</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>4.021242025608685</v>
+        <v>12.36952394949592</v>
       </c>
       <c r="C44">
-        <v>0.3663869219188201</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="D44">
-        <v>2.666212783906236</v>
+        <v>8.201392175589906</v>
       </c>
       <c r="E44">
-        <v>0.5407374317218595</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="F44">
-        <v>1.666711789751109</v>
+        <v>5.126881512960638</v>
       </c>
       <c r="G44">
-        <v>4.605690617480414</v>
+        <v>14.16731448494926</v>
       </c>
       <c r="I44">
-        <v>13.86698157038712</v>
+        <v>42.6554680244988</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>9.67749454514618</v>
+        <v>29.7684147795561</v>
       </c>
       <c r="C45">
-        <v>0.2849676059368601</v>
+        <v>0.8765733581860068</v>
       </c>
       <c r="D45">
-        <v>5.732357485398407</v>
+        <v>17.6329931775183</v>
       </c>
       <c r="E45">
-        <v>4.866636885496734</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F45">
-        <v>2.96304318177975</v>
+        <v>9.11445602304113</v>
       </c>
       <c r="G45">
-        <v>6.6856799286006</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="H45">
-        <v>0.2180231394153475</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I45">
-        <v>30.42820277177388</v>
+        <v>93.59854008503827</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>18.39755051276646</v>
+        <v>56.59170480923222</v>
       </c>
       <c r="C46">
-        <v>0.4070965799098</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="D46">
-        <v>12.26457880596869</v>
+        <v>37.72640400771357</v>
       </c>
       <c r="E46">
-        <v>12.97769836132463</v>
+        <v>39.91999229776283</v>
       </c>
       <c r="F46">
-        <v>5.074211448797822</v>
+        <v>15.60850593945794</v>
       </c>
       <c r="G46">
-        <v>11.58851187624104</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="H46">
-        <v>0.7994181778562742</v>
+        <v>2.459046790440023</v>
       </c>
       <c r="I46">
-        <v>61.50906576286472</v>
+        <v>189.2046927838691</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>29.62167660622367</v>
+        <v>91.11762880013288</v>
       </c>
       <c r="C47">
-        <v>0.44780623790078</v>
+        <v>1.377472420006582</v>
       </c>
       <c r="D47">
-        <v>9.598366022062452</v>
+        <v>29.52501183212367</v>
       </c>
       <c r="E47">
-        <v>12.84251400339416</v>
+        <v>39.50415904466112</v>
       </c>
       <c r="F47">
-        <v>5.9260863635595</v>
+        <v>18.22891204608226</v>
       </c>
       <c r="G47">
-        <v>14.70849584292132</v>
+        <v>45.24400432290248</v>
       </c>
       <c r="H47">
-        <v>0.7267437980511584</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="I47">
-        <v>73.87168887411303</v>
+        <v>227.2326855481272</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>36.35320629744407</v>
+        <v>111.824121272366</v>
       </c>
       <c r="C48">
-        <v>0.89561247580156</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D48">
-        <v>13.99761711550774</v>
+        <v>43.057308921847</v>
       </c>
       <c r="E48">
-        <v>7.840692759966965</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="F48">
-        <v>7.259455795360387</v>
+        <v>22.33041725645077</v>
       </c>
       <c r="G48">
-        <v>17.97705047468162</v>
+        <v>55.29822750576968</v>
       </c>
       <c r="H48">
-        <v>1.598836355712548</v>
+        <v>4.918093580880046</v>
       </c>
       <c r="I48">
-        <v>85.9224712744749</v>
+        <v>264.301442057225</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>26.44003456398384</v>
+        <v>81.33075270822404</v>
       </c>
       <c r="C49">
-        <v>1.58767666164822</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="D49">
-        <v>19.59666396171084</v>
+        <v>60.28023249058579</v>
       </c>
       <c r="E49">
-        <v>7.840692759966965</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="F49">
-        <v>8.148368749894313</v>
+        <v>25.06475406336311</v>
       </c>
       <c r="G49">
-        <v>23.91987707788214</v>
+        <v>73.57863329280097</v>
       </c>
       <c r="H49">
-        <v>2.252905773958592</v>
+        <v>6.930040954876427</v>
       </c>
       <c r="I49">
-        <v>89.7862195490449</v>
+        <v>276.1865080424993</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>71.67980545092504</v>
+        <v>22.41655226091969</v>
       </c>
       <c r="C2">
-        <v>5.509889680026329</v>
+        <v>1.723117538994636</v>
       </c>
       <c r="D2">
-        <v>31.16529026724164</v>
+        <v>9.746376313488424</v>
       </c>
       <c r="E2">
-        <v>13.72249735235597</v>
+        <v>4.291460853085366</v>
       </c>
       <c r="F2">
-        <v>28.36874437171551</v>
+        <v>8.871807572365917</v>
       </c>
       <c r="G2">
-        <v>72.66461300344942</v>
+        <v>22.7245328675806</v>
       </c>
       <c r="H2">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="I2">
-        <v>226.0169863325976</v>
+        <v>70.68269164665907</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>74.67023981234166</v>
+        <v>23.35175608470015</v>
       </c>
       <c r="C3">
-        <v>6.762137334577766</v>
+        <v>2.114735161493417</v>
       </c>
       <c r="D3">
-        <v>29.93508144090316</v>
+        <v>9.361650932692831</v>
       </c>
       <c r="E3">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="F3">
-        <v>26.43192246681928</v>
+        <v>8.266101834493545</v>
       </c>
       <c r="G3">
-        <v>64.43843039928535</v>
+        <v>20.15194424106204</v>
       </c>
       <c r="H3">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="I3">
-        <v>219.8591389009082</v>
+        <v>68.7569371346474</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>79.06527213139331</v>
+        <v>24.72622231055934</v>
       </c>
       <c r="C4">
-        <v>6.511687803667479</v>
+        <v>2.036411636993661</v>
       </c>
       <c r="D4">
-        <v>30.34515104968265</v>
+        <v>9.489892726291357</v>
       </c>
       <c r="E4">
-        <v>14.13833060545767</v>
+        <v>4.421505121360679</v>
       </c>
       <c r="F4">
-        <v>25.97619966566723</v>
+        <v>8.123582837347104</v>
       </c>
       <c r="G4">
-        <v>61.23935938655483</v>
+        <v>19.15149310852703</v>
       </c>
       <c r="H4">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="I4">
-        <v>221.0763456821941</v>
+        <v>69.13759636291113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>78.29500873527086</v>
+        <v>24.48533647716134</v>
       </c>
       <c r="C5">
-        <v>5.885563976391759</v>
+        <v>1.840602825744271</v>
       </c>
       <c r="D5">
-        <v>25.4243157443287</v>
+        <v>7.950991203108977</v>
       </c>
       <c r="E5">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="F5">
-        <v>29.62198207488368</v>
+        <v>9.263734814518628</v>
       </c>
       <c r="G5">
-        <v>42.04493331017199</v>
+        <v>13.14878631331707</v>
       </c>
       <c r="H5">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="I5">
-        <v>199.5637804126934</v>
+        <v>62.40993380026134</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>83.86809095427448</v>
+        <v>26.22821633057039</v>
       </c>
       <c r="C6">
-        <v>5.760339210936616</v>
+        <v>1.801441063494393</v>
       </c>
       <c r="D6">
-        <v>35.2659863550366</v>
+        <v>11.02879424947374</v>
       </c>
       <c r="E6">
-        <v>15.80166361786445</v>
+        <v>4.941682194461935</v>
       </c>
       <c r="F6">
-        <v>27.3433680691234</v>
+        <v>8.551139828786427</v>
       </c>
       <c r="G6">
-        <v>50.72812605901185</v>
+        <v>15.86429653019778</v>
       </c>
       <c r="H6">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="I6">
-        <v>221.6737204731311</v>
+        <v>69.3244144372091</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>87.85533676949662</v>
+        <v>27.47515476227767</v>
       </c>
       <c r="C7">
-        <v>6.010788741846902</v>
+        <v>1.879764587994149</v>
       </c>
       <c r="D7">
-        <v>33.62570791991861</v>
+        <v>10.51582707507962</v>
       </c>
       <c r="E7">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="F7">
-        <v>26.5458531671073</v>
+        <v>8.301731583780155</v>
       </c>
       <c r="G7">
-        <v>43.41596374419932</v>
+        <v>13.5775510844035</v>
       </c>
       <c r="H7">
-        <v>3.353245623327304</v>
+        <v>1.048666431028193</v>
       </c>
       <c r="I7">
-        <v>215.7768930775571</v>
+        <v>67.48028918247459</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>99.86238382669966</v>
+        <v>31.23013981230531</v>
       </c>
       <c r="C8">
-        <v>4.508091556385176</v>
+        <v>1.409823440995612</v>
       </c>
       <c r="D8">
-        <v>36.08612557259559</v>
+        <v>11.28527783667081</v>
       </c>
       <c r="E8">
-        <v>22.03916241438989</v>
+        <v>6.892346218591646</v>
       </c>
       <c r="F8">
-        <v>25.40654616422716</v>
+        <v>7.945434090914054</v>
       </c>
       <c r="G8">
-        <v>25.59256810184381</v>
+        <v>8.003609060279958</v>
       </c>
       <c r="H8">
-        <v>4.247444456214585</v>
+        <v>1.328310812635711</v>
       </c>
       <c r="I8">
-        <v>217.7423220923559</v>
+        <v>68.0949412723931</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>109.1508541917057</v>
+        <v>34.13493956798705</v>
       </c>
       <c r="C9">
-        <v>3.63151819819917</v>
+        <v>1.135691105246465</v>
       </c>
       <c r="D9">
-        <v>31.16529026724164</v>
+        <v>9.746376313488424</v>
       </c>
       <c r="E9">
-        <v>31.1874939826272</v>
+        <v>9.75332012064856</v>
       </c>
       <c r="F9">
-        <v>18.4567734466583</v>
+        <v>5.772019384430838</v>
       </c>
       <c r="G9">
-        <v>19.65143622105864</v>
+        <v>6.14562838557211</v>
       </c>
       <c r="H9">
-        <v>1.341298249330922</v>
+        <v>0.419466572411277</v>
       </c>
       <c r="I9">
-        <v>214.5846645568216</v>
+        <v>67.10744144978473</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>110.872619430097</v>
+        <v>34.67339025440612</v>
       </c>
       <c r="C10">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="D10">
-        <v>24.60417652676972</v>
+        <v>7.694507615911914</v>
       </c>
       <c r="E10">
-        <v>33.26666024813569</v>
+        <v>10.40354146202513</v>
       </c>
       <c r="F10">
-        <v>9.911970925057233</v>
+        <v>3.09978818793508</v>
       </c>
       <c r="G10">
-        <v>10.511233327543</v>
+        <v>3.287196578329269</v>
       </c>
       <c r="H10">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I10">
-        <v>194.094951607743</v>
+        <v>60.69965730130901</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>71.58918622785183</v>
+        <v>22.38821275110816</v>
       </c>
       <c r="C11">
-        <v>6.63691256912262</v>
+        <v>2.075573399243539</v>
       </c>
       <c r="D11">
-        <v>14.76250591606183</v>
+        <v>4.616704569547148</v>
       </c>
       <c r="E11">
-        <v>27.44499470471195</v>
+        <v>8.582921706170731</v>
       </c>
       <c r="F11">
-        <v>4.557228011520565</v>
+        <v>1.425189971464405</v>
       </c>
       <c r="G11">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="H11">
-        <v>0.8941988328872811</v>
+        <v>0.2796443816075181</v>
       </c>
       <c r="I11">
-        <v>133.6541987216443</v>
+        <v>41.79791381529792</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>61.66638130133312</v>
+        <v>19.2850364267457</v>
       </c>
       <c r="C12">
-        <v>7.388261161853484</v>
+        <v>2.310543972742808</v>
       </c>
       <c r="D12">
-        <v>12.30208826338486</v>
+        <v>3.847253807955957</v>
       </c>
       <c r="E12">
-        <v>23.70249542679668</v>
+        <v>7.412523291692903</v>
       </c>
       <c r="F12">
-        <v>5.46867361382468</v>
+        <v>1.710227965757285</v>
       </c>
       <c r="G12">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="H12">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I12">
-        <v>118.053701061995</v>
+        <v>36.91914260653243</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>46.9407575519332</v>
+        <v>14.67986608237219</v>
       </c>
       <c r="C13">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="D13">
-        <v>10.66180982826688</v>
+        <v>3.334286633561828</v>
       </c>
       <c r="E13">
-        <v>19.12832964267803</v>
+        <v>5.982036340664449</v>
       </c>
       <c r="F13">
-        <v>3.759713109504467</v>
+        <v>1.175781726458134</v>
       </c>
       <c r="G13">
-        <v>5.027111591433607</v>
+        <v>1.572137493983563</v>
       </c>
       <c r="I13">
-        <v>89.65013898383592</v>
+        <v>28.03644643128614</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>34.2993759332176</v>
+        <v>10.72650446366385</v>
       </c>
       <c r="C14">
-        <v>4.382866790930033</v>
+        <v>1.370661678745734</v>
       </c>
       <c r="D14">
-        <v>8.611461784369403</v>
+        <v>2.693077665569171</v>
       </c>
       <c r="E14">
-        <v>9.564164821339013</v>
+        <v>2.991018170332224</v>
       </c>
       <c r="F14">
-        <v>3.759713109504467</v>
+        <v>1.175781726458134</v>
       </c>
       <c r="G14">
-        <v>5.484121736109391</v>
+        <v>1.715059084345705</v>
       </c>
       <c r="H14">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I14">
-        <v>66.32525388369173</v>
+        <v>20.7420138845167</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>21.47675586835553</v>
+        <v>6.716463825332446</v>
       </c>
       <c r="C15">
-        <v>1.127022889096294</v>
+        <v>0.3524558602489029</v>
       </c>
       <c r="D15">
-        <v>3.690626479015458</v>
+        <v>1.154176142386787</v>
       </c>
       <c r="E15">
-        <v>8.732498315135619</v>
+        <v>2.730929633781595</v>
       </c>
       <c r="F15">
-        <v>2.050752605184255</v>
+        <v>0.6413354871589821</v>
       </c>
       <c r="G15">
-        <v>7.769172459488304</v>
+        <v>2.429667036156415</v>
       </c>
       <c r="H15">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I15">
-        <v>45.07037832449728</v>
+        <v>14.09493908046701</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>15.08810064169281</v>
+        <v>4.718528383619634</v>
       </c>
       <c r="C16">
-        <v>2.62972007455802</v>
+        <v>0.8223970072474399</v>
       </c>
       <c r="D16">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="E16">
-        <v>4.158332531016962</v>
+        <v>1.300442682753141</v>
       </c>
       <c r="F16">
-        <v>4.215435910656525</v>
+        <v>1.318300723604575</v>
       </c>
       <c r="G16">
-        <v>5.027111591433607</v>
+        <v>1.572137493983563</v>
       </c>
       <c r="H16">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I16">
-        <v>34.02621781847854</v>
+        <v>10.6410792436033</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>9.741566480372235</v>
+        <v>3.046497304739403</v>
       </c>
       <c r="C17">
-        <v>3.881967729109458</v>
+        <v>1.214014629746221</v>
       </c>
       <c r="D17">
-        <v>0.8201392175589906</v>
+        <v>0.2564835871970639</v>
       </c>
       <c r="F17">
-        <v>3.076128907776382</v>
+        <v>0.9620032307384729</v>
       </c>
       <c r="G17">
-        <v>8.226182604164087</v>
+        <v>2.572588626518558</v>
       </c>
       <c r="I17">
-        <v>25.74598493898115</v>
+        <v>8.051587378939718</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>6.298036003589494</v>
+        <v>1.969595931901288</v>
       </c>
       <c r="C18">
-        <v>2.62972007455802</v>
+        <v>0.8223970072474399</v>
       </c>
       <c r="D18">
-        <v>2.870487261456466</v>
+        <v>0.8976925551897235</v>
       </c>
       <c r="F18">
-        <v>2.050752605184255</v>
+        <v>0.6413354871589821</v>
       </c>
       <c r="G18">
-        <v>10.511233327543</v>
+        <v>3.287196578329269</v>
       </c>
       <c r="I18">
-        <v>24.36022927233123</v>
+        <v>7.618217559826703</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>7.068299399711948</v>
+        <v>2.210481765299288</v>
       </c>
       <c r="C19">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="D19">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="E19">
-        <v>3.326666024813569</v>
+        <v>1.040354146202513</v>
       </c>
       <c r="F19">
-        <v>2.620406106624326</v>
+        <v>0.8194842335920327</v>
       </c>
       <c r="G19">
-        <v>10.05422318286721</v>
+        <v>3.144274987967126</v>
       </c>
       <c r="I19">
-        <v>27.78405814488661</v>
+        <v>8.688957615149956</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>12.64138161871561</v>
+        <v>3.953361618708342</v>
       </c>
       <c r="C20">
-        <v>1.502697185461725</v>
+        <v>0.4699411469985373</v>
       </c>
       <c r="D20">
-        <v>5.740974522912933</v>
+        <v>1.795385110379447</v>
       </c>
       <c r="E20">
-        <v>1.663333012406784</v>
+        <v>0.5201770731012563</v>
       </c>
       <c r="F20">
-        <v>5.240812213248653</v>
+        <v>1.638968467184065</v>
       </c>
       <c r="G20">
-        <v>12.7962840509219</v>
+        <v>4.001804530139979</v>
       </c>
       <c r="I20">
-        <v>39.58548260366761</v>
+        <v>12.37963794651163</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>30.40274934106872</v>
+        <v>9.507905541768089</v>
       </c>
       <c r="C21">
-        <v>1.127022889096294</v>
+        <v>0.3524558602489029</v>
       </c>
       <c r="D21">
-        <v>12.30208826338486</v>
+        <v>3.847253807955957</v>
       </c>
       <c r="E21">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="F21">
-        <v>9.342317423617162</v>
+        <v>2.921639441502029</v>
       </c>
       <c r="G21">
-        <v>18.73741593170709</v>
+        <v>5.859785204847825</v>
       </c>
       <c r="H21">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I21">
-        <v>87.96807333830233</v>
+        <v>27.51041106871506</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>57.76975470918422</v>
+        <v>18.06643750484995</v>
       </c>
       <c r="C22">
-        <v>1.62792195091687</v>
+        <v>0.5091029092484153</v>
       </c>
       <c r="D22">
-        <v>26.2444549618877</v>
+        <v>8.207474790306044</v>
       </c>
       <c r="E22">
-        <v>41.16749205706792</v>
+        <v>12.87438255925609</v>
       </c>
       <c r="F22">
-        <v>16.06422874061</v>
+        <v>5.023794649412026</v>
       </c>
       <c r="G22">
-        <v>32.90473041665635</v>
+        <v>10.29035450607423</v>
       </c>
       <c r="H22">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="I22">
-        <v>178.0140799185413</v>
+        <v>55.67065787316556</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>92.97532287313415</v>
+        <v>29.07633706662908</v>
       </c>
       <c r="C23">
-        <v>1.753146716372014</v>
+        <v>0.5482646714982933</v>
       </c>
       <c r="D23">
-        <v>20.50348043897477</v>
+        <v>6.412089679926597</v>
       </c>
       <c r="E23">
-        <v>40.75165880396622</v>
+        <v>12.74433829098078</v>
       </c>
       <c r="F23">
-        <v>18.68463484723432</v>
+        <v>5.843278883004057</v>
       </c>
       <c r="G23">
-        <v>41.5879231654962</v>
+        <v>13.00586472295494</v>
       </c>
       <c r="H23">
-        <v>2.011947373996382</v>
+        <v>0.6291998586169157</v>
       </c>
       <c r="I23">
-        <v>218.268114219174</v>
+        <v>68.25937317361067</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>114.1349114607334</v>
+        <v>35.69361260762118</v>
       </c>
       <c r="C24">
-        <v>3.63151819819917</v>
+        <v>1.135691105246465</v>
       </c>
       <c r="D24">
-        <v>29.93508144090316</v>
+        <v>9.361650932692831</v>
       </c>
       <c r="E24">
-        <v>24.94999518610176</v>
+        <v>7.802656096518847</v>
       </c>
       <c r="F24">
-        <v>22.90007075789084</v>
+        <v>7.161579606608634</v>
       </c>
       <c r="G24">
-        <v>50.72812605901185</v>
+        <v>15.86429653019778</v>
       </c>
       <c r="H24">
-        <v>4.470994164436404</v>
+        <v>1.39822190803759</v>
       </c>
       <c r="I24">
-        <v>250.7506972672766</v>
+        <v>78.41770878692331</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>83.00720833507883</v>
+        <v>25.95899098736086</v>
       </c>
       <c r="C25">
-        <v>6.386463038212333</v>
+        <v>1.997249874743783</v>
       </c>
       <c r="D25">
-        <v>41.82710009550852</v>
+        <v>13.08066294705026</v>
       </c>
       <c r="E25">
-        <v>24.94999518610176</v>
+        <v>7.802656096518847</v>
       </c>
       <c r="F25">
-        <v>25.7483382650912</v>
+        <v>8.052323338773885</v>
       </c>
       <c r="G25">
-        <v>67.63750141201582</v>
+        <v>21.15239537359704</v>
       </c>
       <c r="H25">
-        <v>6.259391830210967</v>
+        <v>1.957510671252626</v>
       </c>
       <c r="I25">
-        <v>255.8159981622194</v>
+        <v>80.00178928929729</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>70.22989788175336</v>
+        <v>21.96312010393522</v>
       </c>
       <c r="C26">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="D26">
-        <v>44.69758735696497</v>
+        <v>13.97835550223998</v>
       </c>
       <c r="E26">
-        <v>13.30666409925428</v>
+        <v>4.16141658481005</v>
       </c>
       <c r="F26">
-        <v>27.68516016998744</v>
+        <v>8.658029076646256</v>
       </c>
       <c r="G26">
-        <v>79.06275502891042</v>
+        <v>24.72543513265058</v>
       </c>
       <c r="H26">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="I26">
-        <v>242.3694024774508</v>
+        <v>75.79661165240425</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>73.17502263163335</v>
+        <v>22.88415417280993</v>
       </c>
       <c r="C27">
-        <v>5.25944014911604</v>
+        <v>1.64479401449488</v>
       </c>
       <c r="D27">
-        <v>43.057308921847</v>
+        <v>13.46538832784585</v>
       </c>
       <c r="E27">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="F27">
-        <v>25.7483382650912</v>
+        <v>8.052323338773885</v>
       </c>
       <c r="G27">
-        <v>70.37956228007049</v>
+        <v>22.00992491576988</v>
       </c>
       <c r="H27">
-        <v>2.459046790440023</v>
+        <v>0.7690220494206744</v>
       </c>
       <c r="I27">
-        <v>235.0487161498592</v>
+        <v>73.5072004770264</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>77.47943572761179</v>
+        <v>24.23028088885757</v>
       </c>
       <c r="C28">
-        <v>5.008990618205752</v>
+        <v>1.566470489995124</v>
       </c>
       <c r="D28">
-        <v>43.877448139406</v>
+        <v>13.72187191504291</v>
       </c>
       <c r="E28">
-        <v>13.72249735235597</v>
+        <v>4.291460853085366</v>
       </c>
       <c r="F28">
-        <v>25.29261546393915</v>
+        <v>7.909804341627445</v>
       </c>
       <c r="G28">
-        <v>66.72348112266425</v>
+        <v>20.86655219287275</v>
       </c>
       <c r="H28">
-        <v>4.247444456214585</v>
+        <v>1.328310812635711</v>
       </c>
       <c r="I28">
-        <v>236.3519128803975</v>
+        <v>73.91475149411687</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>76.70917233148931</v>
+        <v>23.98939505545957</v>
       </c>
       <c r="C29">
-        <v>4.508091556385176</v>
+        <v>1.409823440995612</v>
       </c>
       <c r="D29">
-        <v>36.49619518137508</v>
+        <v>11.41351963026934</v>
       </c>
       <c r="E29">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="F29">
-        <v>28.82446717286758</v>
+        <v>9.01432656951236</v>
       </c>
       <c r="G29">
-        <v>45.70101446757823</v>
+        <v>14.29215903621421</v>
       </c>
       <c r="H29">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="I29">
-        <v>210.3386337364619</v>
+        <v>65.77957272598873</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>82.19163532741969</v>
+        <v>25.70393539905708</v>
       </c>
       <c r="C30">
-        <v>4.382866790930033</v>
+        <v>1.370661678745734</v>
       </c>
       <c r="D30">
-        <v>50.8486314886574</v>
+        <v>15.90198240621795</v>
       </c>
       <c r="E30">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="F30">
-        <v>26.65978386739531</v>
+        <v>8.337361333066767</v>
       </c>
       <c r="G30">
-        <v>55.29822750576968</v>
+        <v>17.29351243381919</v>
       </c>
       <c r="H30">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="I30">
-        <v>237.8966712600404</v>
+        <v>74.39784651271967</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>86.08826191956862</v>
+        <v>26.92253432095286</v>
       </c>
       <c r="C31">
-        <v>4.63331632184032</v>
+        <v>1.448985203245489</v>
       </c>
       <c r="D31">
-        <v>48.38821383598044</v>
+        <v>15.13253164462676</v>
       </c>
       <c r="E31">
-        <v>14.55416385855936</v>
+        <v>4.551549389635993</v>
       </c>
       <c r="F31">
-        <v>25.86226896537922</v>
+        <v>8.087953088060495</v>
       </c>
       <c r="G31">
-        <v>47.52905504628138</v>
+        <v>14.86384539766278</v>
       </c>
       <c r="H31">
-        <v>3.576795331549124</v>
+        <v>1.118577526430072</v>
       </c>
       <c r="I31">
-        <v>230.6320752791585</v>
+        <v>72.12597657061445</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>97.86876091908853</v>
+        <v>30.60667059645167</v>
       </c>
       <c r="C32">
-        <v>3.506293432744027</v>
+        <v>1.096529342996587</v>
       </c>
       <c r="D32">
-        <v>52.07884031499592</v>
+        <v>16.28670778701355</v>
       </c>
       <c r="E32">
-        <v>21.20749590818649</v>
+        <v>6.63225768204102</v>
       </c>
       <c r="F32">
-        <v>24.72296196249907</v>
+        <v>7.731655595194395</v>
       </c>
       <c r="G32">
-        <v>27.87761882522273</v>
+        <v>8.718217012090671</v>
       </c>
       <c r="H32">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="I32">
-        <v>231.956515235395</v>
+        <v>72.54017101922737</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>106.9759928379481</v>
+        <v>33.45479133251036</v>
       </c>
       <c r="C33">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="D33">
-        <v>44.69758735696497</v>
+        <v>13.97835550223998</v>
       </c>
       <c r="E33">
-        <v>30.35582747642382</v>
+        <v>9.493231584097931</v>
       </c>
       <c r="F33">
-        <v>18.00105064550624</v>
+        <v>5.629500387284398</v>
       </c>
       <c r="G33">
-        <v>21.47947679976178</v>
+        <v>6.717314747020679</v>
       </c>
       <c r="H33">
-        <v>1.564847957552742</v>
+        <v>0.4893776678131564</v>
       </c>
       <c r="I33">
-        <v>225.8297279141709</v>
+        <v>70.62412999046383</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>108.6524484648029</v>
+        <v>33.97907226402366</v>
       </c>
       <c r="C34">
-        <v>3.255843901833739</v>
+        <v>1.018205818496831</v>
       </c>
       <c r="D34">
-        <v>35.2659863550366</v>
+        <v>11.02879424947374</v>
       </c>
       <c r="E34">
-        <v>32.43499374193229</v>
+        <v>10.1434529254745</v>
       </c>
       <c r="F34">
-        <v>9.684109524481205</v>
+        <v>3.02852868936186</v>
       </c>
       <c r="G34">
-        <v>11.42525361689456</v>
+        <v>3.573039759053553</v>
       </c>
       <c r="H34">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I34">
-        <v>201.3892847296468</v>
+        <v>62.98082699208979</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>70.13927865868013</v>
+        <v>21.93478059412369</v>
       </c>
       <c r="C35">
-        <v>5.134215383660896</v>
+        <v>1.605632252245002</v>
       </c>
       <c r="D35">
-        <v>21.32361965653375</v>
+        <v>6.668573267123657</v>
       </c>
       <c r="E35">
-        <v>26.61332819850855</v>
+        <v>8.3228331696201</v>
       </c>
       <c r="F35">
-        <v>4.443297311232553</v>
+        <v>1.389560222177795</v>
       </c>
       <c r="G35">
-        <v>8.683192748839868</v>
+        <v>2.715510216880701</v>
       </c>
       <c r="H35">
-        <v>0.8941988328872811</v>
+        <v>0.2796443816075181</v>
       </c>
       <c r="I35">
-        <v>137.231130790343</v>
+        <v>42.91653410377847</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>60.4430217898445</v>
+        <v>18.90245304429006</v>
       </c>
       <c r="C36">
-        <v>5.63511444548147</v>
+        <v>1.762279301244514</v>
       </c>
       <c r="D36">
-        <v>17.6329931775183</v>
+        <v>5.51439712473687</v>
       </c>
       <c r="E36">
-        <v>22.87082892059329</v>
+        <v>7.152434755142275</v>
       </c>
       <c r="F36">
-        <v>5.354742913536665</v>
+        <v>1.674598216470675</v>
       </c>
       <c r="G36">
-        <v>7.312162314812519</v>
+        <v>2.286745445794274</v>
       </c>
       <c r="H36">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I36">
-        <v>119.9195126864522</v>
+        <v>37.50264117388431</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>45.98925570966428</v>
+        <v>14.38230122935112</v>
       </c>
       <c r="C37">
-        <v>3.130619136378595</v>
+        <v>0.9790440562469523</v>
       </c>
       <c r="D37">
-        <v>15.17257552484132</v>
+        <v>4.744946363145679</v>
       </c>
       <c r="E37">
-        <v>18.71249638957633</v>
+        <v>5.851992072389135</v>
       </c>
       <c r="F37">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="G37">
-        <v>5.484121736109391</v>
+        <v>1.715059084345705</v>
       </c>
       <c r="I37">
-        <v>92.13485090578638</v>
+        <v>28.81349478265012</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>33.61973176016837</v>
+        <v>10.51395814007738</v>
       </c>
       <c r="C38">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="D38">
-        <v>12.30208826338486</v>
+        <v>3.847253807955957</v>
       </c>
       <c r="E38">
-        <v>9.148331568237312</v>
+        <v>2.86097390205691</v>
       </c>
       <c r="F38">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="G38">
-        <v>5.941131880785172</v>
+        <v>1.857980674707848</v>
       </c>
       <c r="H38">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I38">
-        <v>68.26168425730287</v>
+        <v>21.3475971781182</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>21.02365975298938</v>
+        <v>6.574766276274803</v>
       </c>
       <c r="C39">
-        <v>0.8765733581860068</v>
+        <v>0.2741323357491466</v>
       </c>
       <c r="D39">
-        <v>5.330904914133439</v>
+        <v>1.667143316780914</v>
       </c>
       <c r="E39">
-        <v>8.316665062033923</v>
+        <v>2.600885365506282</v>
       </c>
       <c r="F39">
-        <v>2.050752605184255</v>
+        <v>0.6413354871589821</v>
       </c>
       <c r="G39">
-        <v>8.683192748839868</v>
+        <v>2.715510216880701</v>
       </c>
       <c r="H39">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I39">
-        <v>46.5052981495887</v>
+        <v>14.54368409375271</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>14.77093336093651</v>
+        <v>4.61934009927928</v>
       </c>
       <c r="C40">
-        <v>2.003596247282301</v>
+        <v>0.6265881959980495</v>
       </c>
       <c r="D40">
-        <v>3.690626479015458</v>
+        <v>1.154176142386787</v>
       </c>
       <c r="E40">
-        <v>4.158332531016962</v>
+        <v>1.300442682753141</v>
       </c>
       <c r="F40">
-        <v>4.10150521036851</v>
+        <v>1.282670974317964</v>
       </c>
       <c r="G40">
-        <v>5.484121736109391</v>
+        <v>1.715059084345705</v>
       </c>
       <c r="H40">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I40">
-        <v>34.65621498117277</v>
+        <v>10.83809936988469</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>9.560328034225781</v>
+        <v>2.989818285116342</v>
       </c>
       <c r="C41">
-        <v>3.005394370923451</v>
+        <v>0.9398822939970746</v>
       </c>
       <c r="D41">
-        <v>1.230208826338486</v>
+        <v>0.3847253807955957</v>
       </c>
       <c r="F41">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="G41">
-        <v>9.140202893515649</v>
+        <v>2.858431807242844</v>
       </c>
       <c r="I41">
-        <v>25.89833233249173</v>
+        <v>8.099231248603719</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>6.162107168979647</v>
+        <v>1.927086667183994</v>
       </c>
       <c r="C42">
-        <v>2.003596247282301</v>
+        <v>0.6265881959980495</v>
       </c>
       <c r="D42">
-        <v>4.100696087794953</v>
+        <v>1.282417935985319</v>
       </c>
       <c r="F42">
-        <v>2.050752605184255</v>
+        <v>0.6413354871589821</v>
       </c>
       <c r="G42">
-        <v>11.42525361689456</v>
+        <v>3.573039759053553</v>
       </c>
       <c r="I42">
-        <v>25.74240572613571</v>
+        <v>8.050468045379898</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>6.932370565102105</v>
+        <v>2.167972500581993</v>
       </c>
       <c r="C43">
-        <v>1.753146716372014</v>
+        <v>0.5482646714982933</v>
       </c>
       <c r="D43">
-        <v>3.690626479015458</v>
+        <v>1.154176142386787</v>
       </c>
       <c r="E43">
-        <v>3.326666024813569</v>
+        <v>1.040354146202513</v>
       </c>
       <c r="F43">
-        <v>2.506475406336311</v>
+        <v>0.7838544843054223</v>
       </c>
       <c r="G43">
-        <v>10.96824347221878</v>
+        <v>3.430118168691411</v>
       </c>
       <c r="I43">
-        <v>29.17752866385824</v>
+        <v>9.124740113666419</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>12.36952394949592</v>
+        <v>3.868343089273753</v>
       </c>
       <c r="C44">
-        <v>1.127022889096294</v>
+        <v>0.3524558602489029</v>
       </c>
       <c r="D44">
-        <v>8.201392175589906</v>
+        <v>2.564835871970639</v>
       </c>
       <c r="E44">
-        <v>1.663333012406784</v>
+        <v>0.5201770731012563</v>
       </c>
       <c r="F44">
-        <v>5.126881512960638</v>
+        <v>1.603338717897455</v>
       </c>
       <c r="G44">
-        <v>14.16731448494926</v>
+        <v>4.430569301226404</v>
       </c>
       <c r="I44">
-        <v>42.6554680244988</v>
+        <v>13.33971991371841</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>29.7684147795561</v>
+        <v>9.309528973087385</v>
       </c>
       <c r="C45">
-        <v>0.8765733581860068</v>
+        <v>0.2741323357491466</v>
       </c>
       <c r="D45">
-        <v>17.6329931775183</v>
+        <v>5.51439712473687</v>
       </c>
       <c r="E45">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="F45">
-        <v>9.11445602304113</v>
+        <v>2.850379942928809</v>
       </c>
       <c r="G45">
-        <v>20.56545651041021</v>
+        <v>6.431471566296396</v>
       </c>
       <c r="H45">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I45">
-        <v>93.59854008503827</v>
+        <v>29.27123688691555</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>56.59170480923222</v>
+        <v>17.69802387730006</v>
       </c>
       <c r="C46">
-        <v>1.252247654551438</v>
+        <v>0.3916176224987811</v>
       </c>
       <c r="D46">
-        <v>37.72640400771357</v>
+        <v>11.79824501106493</v>
       </c>
       <c r="E46">
-        <v>39.91999229776283</v>
+        <v>12.48424975443015</v>
       </c>
       <c r="F46">
-        <v>15.60850593945794</v>
+        <v>4.881275652265585</v>
       </c>
       <c r="G46">
-        <v>35.64679128471104</v>
+        <v>11.14788404824709</v>
       </c>
       <c r="H46">
-        <v>2.459046790440023</v>
+        <v>0.7690220494206744</v>
       </c>
       <c r="I46">
-        <v>189.2046927838691</v>
+        <v>59.17031801522727</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>91.11762880013288</v>
+        <v>28.49537711549274</v>
       </c>
       <c r="C47">
-        <v>1.377472420006582</v>
+        <v>0.4307793847486591</v>
       </c>
       <c r="D47">
-        <v>29.52501183212367</v>
+        <v>9.233409139094297</v>
       </c>
       <c r="E47">
-        <v>39.50415904466112</v>
+        <v>12.35420548615484</v>
       </c>
       <c r="F47">
-        <v>18.22891204608226</v>
+        <v>5.700759885857619</v>
       </c>
       <c r="G47">
-        <v>45.24400432290248</v>
+        <v>14.14923744585207</v>
       </c>
       <c r="H47">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="I47">
-        <v>227.2326855481272</v>
+        <v>71.06287941121901</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>111.824121272366</v>
+        <v>34.97095510742719</v>
       </c>
       <c r="C48">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="D48">
-        <v>43.057308921847</v>
+        <v>13.46538832784585</v>
       </c>
       <c r="E48">
-        <v>24.11832867989837</v>
+        <v>7.542567559968218</v>
       </c>
       <c r="F48">
-        <v>22.33041725645077</v>
+        <v>6.983430860175583</v>
       </c>
       <c r="G48">
-        <v>55.29822750576968</v>
+        <v>17.29351243381919</v>
       </c>
       <c r="H48">
-        <v>4.918093580880046</v>
+        <v>1.538044098841349</v>
       </c>
       <c r="I48">
-        <v>264.301442057225</v>
+        <v>82.6554571575747</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>81.33075270822404</v>
+        <v>25.43471005584757</v>
       </c>
       <c r="C49">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="D49">
-        <v>60.28023249058579</v>
+        <v>18.8515436589842</v>
       </c>
       <c r="E49">
-        <v>24.11832867989837</v>
+        <v>7.542567559968218</v>
       </c>
       <c r="F49">
-        <v>25.06475406336311</v>
+        <v>7.838544843054225</v>
       </c>
       <c r="G49">
-        <v>73.57863329280097</v>
+        <v>23.01037604830488</v>
       </c>
       <c r="H49">
-        <v>6.930040954876427</v>
+        <v>2.167243957458265</v>
       </c>
       <c r="I49">
-        <v>276.1865080424993</v>
+        <v>86.37229485136261</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>22.41655226091969</v>
+        <v>71.67980545092504</v>
       </c>
       <c r="C2">
-        <v>1.723117538994636</v>
+        <v>5.509889680026329</v>
       </c>
       <c r="D2">
-        <v>9.746376313488424</v>
+        <v>31.16529026724164</v>
       </c>
       <c r="E2">
-        <v>4.291460853085366</v>
+        <v>13.72249735235597</v>
       </c>
       <c r="F2">
-        <v>8.871807572365917</v>
+        <v>28.36874437171551</v>
       </c>
       <c r="G2">
-        <v>22.7245328675806</v>
+        <v>72.66461300344942</v>
       </c>
       <c r="H2">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I2">
-        <v>70.68269164665907</v>
+        <v>226.0169863325976</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>23.35175608470015</v>
+        <v>74.67023981234166</v>
       </c>
       <c r="C3">
-        <v>2.114735161493417</v>
+        <v>6.762137334577766</v>
       </c>
       <c r="D3">
-        <v>9.361650932692831</v>
+        <v>29.93508144090316</v>
       </c>
       <c r="E3">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="F3">
-        <v>8.266101834493545</v>
+        <v>26.43192246681928</v>
       </c>
       <c r="G3">
-        <v>20.15194424106204</v>
+        <v>64.43843039928535</v>
       </c>
       <c r="H3">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="I3">
-        <v>68.7569371346474</v>
+        <v>219.8591389009082</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>24.72622231055934</v>
+        <v>79.06527213139331</v>
       </c>
       <c r="C4">
-        <v>2.036411636993661</v>
+        <v>6.511687803667479</v>
       </c>
       <c r="D4">
-        <v>9.489892726291357</v>
+        <v>30.34515104968265</v>
       </c>
       <c r="E4">
-        <v>4.421505121360679</v>
+        <v>14.13833060545767</v>
       </c>
       <c r="F4">
-        <v>8.123582837347104</v>
+        <v>25.97619966566723</v>
       </c>
       <c r="G4">
-        <v>19.15149310852703</v>
+        <v>61.23935938655483</v>
       </c>
       <c r="H4">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="I4">
-        <v>69.13759636291113</v>
+        <v>221.0763456821941</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>24.48533647716134</v>
+        <v>78.29500873527086</v>
       </c>
       <c r="C5">
-        <v>1.840602825744271</v>
+        <v>5.885563976391759</v>
       </c>
       <c r="D5">
-        <v>7.950991203108977</v>
+        <v>25.4243157443287</v>
       </c>
       <c r="E5">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="F5">
-        <v>9.263734814518628</v>
+        <v>29.62198207488368</v>
       </c>
       <c r="G5">
-        <v>13.14878631331707</v>
+        <v>42.04493331017199</v>
       </c>
       <c r="H5">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I5">
-        <v>62.40993380026134</v>
+        <v>199.5637804126934</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>26.22821633057039</v>
+        <v>83.86809095427448</v>
       </c>
       <c r="C6">
-        <v>1.801441063494393</v>
+        <v>5.760339210936616</v>
       </c>
       <c r="D6">
-        <v>11.02879424947374</v>
+        <v>35.2659863550366</v>
       </c>
       <c r="E6">
-        <v>4.941682194461935</v>
+        <v>15.80166361786445</v>
       </c>
       <c r="F6">
-        <v>8.551139828786427</v>
+        <v>27.3433680691234</v>
       </c>
       <c r="G6">
-        <v>15.86429653019778</v>
+        <v>50.72812605901185</v>
       </c>
       <c r="H6">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I6">
-        <v>69.3244144372091</v>
+        <v>221.6737204731311</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>27.47515476227767</v>
+        <v>87.85533676949662</v>
       </c>
       <c r="C7">
-        <v>1.879764587994149</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="D7">
-        <v>10.51582707507962</v>
+        <v>33.62570791991861</v>
       </c>
       <c r="E7">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F7">
-        <v>8.301731583780155</v>
+        <v>26.5458531671073</v>
       </c>
       <c r="G7">
-        <v>13.5775510844035</v>
+        <v>43.41596374419932</v>
       </c>
       <c r="H7">
-        <v>1.048666431028193</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="I7">
-        <v>67.48028918247459</v>
+        <v>215.7768930775571</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>31.23013981230531</v>
+        <v>99.86238382669966</v>
       </c>
       <c r="C8">
-        <v>1.409823440995612</v>
+        <v>4.508091556385176</v>
       </c>
       <c r="D8">
-        <v>11.28527783667081</v>
+        <v>36.08612557259559</v>
       </c>
       <c r="E8">
-        <v>6.892346218591646</v>
+        <v>22.03916241438989</v>
       </c>
       <c r="F8">
-        <v>7.945434090914054</v>
+        <v>25.40654616422716</v>
       </c>
       <c r="G8">
-        <v>8.003609060279958</v>
+        <v>25.59256810184381</v>
       </c>
       <c r="H8">
-        <v>1.328310812635711</v>
+        <v>4.247444456214585</v>
       </c>
       <c r="I8">
-        <v>68.0949412723931</v>
+        <v>217.7423220923559</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>34.13493956798705</v>
+        <v>109.1508541917057</v>
       </c>
       <c r="C9">
-        <v>1.135691105246465</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="D9">
-        <v>9.746376313488424</v>
+        <v>31.16529026724164</v>
       </c>
       <c r="E9">
-        <v>9.75332012064856</v>
+        <v>31.1874939826272</v>
       </c>
       <c r="F9">
-        <v>5.772019384430838</v>
+        <v>18.4567734466583</v>
       </c>
       <c r="G9">
-        <v>6.14562838557211</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="H9">
-        <v>0.419466572411277</v>
+        <v>1.341298249330922</v>
       </c>
       <c r="I9">
-        <v>67.10744144978473</v>
+        <v>214.5846645568216</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>34.67339025440612</v>
+        <v>110.872619430097</v>
       </c>
       <c r="C10">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D10">
-        <v>7.694507615911914</v>
+        <v>24.60417652676972</v>
       </c>
       <c r="E10">
-        <v>10.40354146202513</v>
+        <v>33.26666024813569</v>
       </c>
       <c r="F10">
-        <v>3.09978818793508</v>
+        <v>9.911970925057233</v>
       </c>
       <c r="G10">
-        <v>3.287196578329269</v>
+        <v>10.511233327543</v>
       </c>
       <c r="H10">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I10">
-        <v>60.69965730130901</v>
+        <v>194.094951607743</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>22.38821275110816</v>
+        <v>71.58918622785183</v>
       </c>
       <c r="C11">
-        <v>2.075573399243539</v>
+        <v>6.63691256912262</v>
       </c>
       <c r="D11">
-        <v>4.616704569547148</v>
+        <v>14.76250591606183</v>
       </c>
       <c r="E11">
-        <v>8.582921706170731</v>
+        <v>27.44499470471195</v>
       </c>
       <c r="F11">
-        <v>1.425189971464405</v>
+        <v>4.557228011520565</v>
       </c>
       <c r="G11">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H11">
-        <v>0.2796443816075181</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="I11">
-        <v>41.79791381529792</v>
+        <v>133.6541987216443</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>19.2850364267457</v>
+        <v>61.66638130133312</v>
       </c>
       <c r="C12">
-        <v>2.310543972742808</v>
+        <v>7.388261161853484</v>
       </c>
       <c r="D12">
-        <v>3.847253807955957</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="E12">
-        <v>7.412523291692903</v>
+        <v>23.70249542679668</v>
       </c>
       <c r="F12">
-        <v>1.710227965757285</v>
+        <v>5.46867361382468</v>
       </c>
       <c r="G12">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H12">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I12">
-        <v>36.91914260653243</v>
+        <v>118.053701061995</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>14.67986608237219</v>
+        <v>46.9407575519332</v>
       </c>
       <c r="C13">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="D13">
-        <v>3.334286633561828</v>
+        <v>10.66180982826688</v>
       </c>
       <c r="E13">
-        <v>5.982036340664449</v>
+        <v>19.12832964267803</v>
       </c>
       <c r="F13">
-        <v>1.175781726458134</v>
+        <v>3.759713109504467</v>
       </c>
       <c r="G13">
-        <v>1.572137493983563</v>
+        <v>5.027111591433607</v>
       </c>
       <c r="I13">
-        <v>28.03644643128614</v>
+        <v>89.65013898383592</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>10.72650446366385</v>
+        <v>34.2993759332176</v>
       </c>
       <c r="C14">
-        <v>1.370661678745734</v>
+        <v>4.382866790930033</v>
       </c>
       <c r="D14">
-        <v>2.693077665569171</v>
+        <v>8.611461784369403</v>
       </c>
       <c r="E14">
-        <v>2.991018170332224</v>
+        <v>9.564164821339013</v>
       </c>
       <c r="F14">
-        <v>1.175781726458134</v>
+        <v>3.759713109504467</v>
       </c>
       <c r="G14">
-        <v>1.715059084345705</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="H14">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I14">
-        <v>20.7420138845167</v>
+        <v>66.32525388369173</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>6.716463825332446</v>
+        <v>21.47675586835553</v>
       </c>
       <c r="C15">
-        <v>0.3524558602489029</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="D15">
-        <v>1.154176142386787</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="E15">
-        <v>2.730929633781595</v>
+        <v>8.732498315135619</v>
       </c>
       <c r="F15">
-        <v>0.6413354871589821</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="G15">
-        <v>2.429667036156415</v>
+        <v>7.769172459488304</v>
       </c>
       <c r="H15">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I15">
-        <v>14.09493908046701</v>
+        <v>45.07037832449728</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>4.718528383619634</v>
+        <v>15.08810064169281</v>
       </c>
       <c r="C16">
-        <v>0.8223970072474399</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="D16">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="E16">
-        <v>1.300442682753141</v>
+        <v>4.158332531016962</v>
       </c>
       <c r="F16">
-        <v>1.318300723604575</v>
+        <v>4.215435910656525</v>
       </c>
       <c r="G16">
-        <v>1.572137493983563</v>
+        <v>5.027111591433607</v>
       </c>
       <c r="H16">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I16">
-        <v>10.6410792436033</v>
+        <v>34.02621781847854</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>3.046497304739403</v>
+        <v>9.741566480372235</v>
       </c>
       <c r="C17">
-        <v>1.214014629746221</v>
+        <v>3.881967729109458</v>
       </c>
       <c r="D17">
-        <v>0.2564835871970639</v>
+        <v>0.8201392175589906</v>
       </c>
       <c r="F17">
-        <v>0.9620032307384729</v>
+        <v>3.076128907776382</v>
       </c>
       <c r="G17">
-        <v>2.572588626518558</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="I17">
-        <v>8.051587378939718</v>
+        <v>25.74598493898115</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>1.969595931901288</v>
+        <v>6.298036003589494</v>
       </c>
       <c r="C18">
-        <v>0.8223970072474399</v>
+        <v>2.62972007455802</v>
       </c>
       <c r="D18">
-        <v>0.8976925551897235</v>
+        <v>2.870487261456466</v>
       </c>
       <c r="F18">
-        <v>0.6413354871589821</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="G18">
-        <v>3.287196578329269</v>
+        <v>10.511233327543</v>
       </c>
       <c r="I18">
-        <v>7.618217559826703</v>
+        <v>24.36022927233123</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.210481765299288</v>
+        <v>7.068299399711948</v>
       </c>
       <c r="C19">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D19">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="E19">
-        <v>1.040354146202513</v>
+        <v>3.326666024813569</v>
       </c>
       <c r="F19">
-        <v>0.8194842335920327</v>
+        <v>2.620406106624326</v>
       </c>
       <c r="G19">
-        <v>3.144274987967126</v>
+        <v>10.05422318286721</v>
       </c>
       <c r="I19">
-        <v>8.688957615149956</v>
+        <v>27.78405814488661</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>3.953361618708342</v>
+        <v>12.64138161871561</v>
       </c>
       <c r="C20">
-        <v>0.4699411469985373</v>
+        <v>1.502697185461725</v>
       </c>
       <c r="D20">
-        <v>1.795385110379447</v>
+        <v>5.740974522912933</v>
       </c>
       <c r="E20">
-        <v>0.5201770731012563</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="F20">
-        <v>1.638968467184065</v>
+        <v>5.240812213248653</v>
       </c>
       <c r="G20">
-        <v>4.001804530139979</v>
+        <v>12.7962840509219</v>
       </c>
       <c r="I20">
-        <v>12.37963794651163</v>
+        <v>39.58548260366761</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>9.507905541768089</v>
+        <v>30.40274934106872</v>
       </c>
       <c r="C21">
-        <v>0.3524558602489029</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="D21">
-        <v>3.847253807955957</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="E21">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="F21">
-        <v>2.921639441502029</v>
+        <v>9.342317423617162</v>
       </c>
       <c r="G21">
-        <v>5.859785204847825</v>
+        <v>18.73741593170709</v>
       </c>
       <c r="H21">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I21">
-        <v>27.51041106871506</v>
+        <v>87.96807333830233</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>18.06643750484995</v>
+        <v>57.76975470918422</v>
       </c>
       <c r="C22">
-        <v>0.5091029092484153</v>
+        <v>1.62792195091687</v>
       </c>
       <c r="D22">
-        <v>8.207474790306044</v>
+        <v>26.2444549618877</v>
       </c>
       <c r="E22">
-        <v>12.87438255925609</v>
+        <v>41.16749205706792</v>
       </c>
       <c r="F22">
-        <v>5.023794649412026</v>
+        <v>16.06422874061</v>
       </c>
       <c r="G22">
-        <v>10.29035450607423</v>
+        <v>32.90473041665635</v>
       </c>
       <c r="H22">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="I22">
-        <v>55.67065787316556</v>
+        <v>178.0140799185413</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>29.07633706662908</v>
+        <v>92.97532287313415</v>
       </c>
       <c r="C23">
-        <v>0.5482646714982933</v>
+        <v>1.753146716372014</v>
       </c>
       <c r="D23">
-        <v>6.412089679926597</v>
+        <v>20.50348043897477</v>
       </c>
       <c r="E23">
-        <v>12.74433829098078</v>
+        <v>40.75165880396622</v>
       </c>
       <c r="F23">
-        <v>5.843278883004057</v>
+        <v>18.68463484723432</v>
       </c>
       <c r="G23">
-        <v>13.00586472295494</v>
+        <v>41.5879231654962</v>
       </c>
       <c r="H23">
-        <v>0.6291998586169157</v>
+        <v>2.011947373996382</v>
       </c>
       <c r="I23">
-        <v>68.25937317361067</v>
+        <v>218.268114219174</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>35.69361260762118</v>
+        <v>114.1349114607334</v>
       </c>
       <c r="C24">
-        <v>1.135691105246465</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="D24">
-        <v>9.361650932692831</v>
+        <v>29.93508144090316</v>
       </c>
       <c r="E24">
-        <v>7.802656096518847</v>
+        <v>24.94999518610176</v>
       </c>
       <c r="F24">
-        <v>7.161579606608634</v>
+        <v>22.90007075789084</v>
       </c>
       <c r="G24">
-        <v>15.86429653019778</v>
+        <v>50.72812605901185</v>
       </c>
       <c r="H24">
-        <v>1.39822190803759</v>
+        <v>4.470994164436404</v>
       </c>
       <c r="I24">
-        <v>78.41770878692331</v>
+        <v>250.7506972672766</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>25.95899098736086</v>
+        <v>83.00720833507883</v>
       </c>
       <c r="C25">
-        <v>1.997249874743783</v>
+        <v>6.386463038212333</v>
       </c>
       <c r="D25">
-        <v>13.08066294705026</v>
+        <v>41.82710009550852</v>
       </c>
       <c r="E25">
-        <v>7.802656096518847</v>
+        <v>24.94999518610176</v>
       </c>
       <c r="F25">
-        <v>8.052323338773885</v>
+        <v>25.7483382650912</v>
       </c>
       <c r="G25">
-        <v>21.15239537359704</v>
+        <v>67.63750141201582</v>
       </c>
       <c r="H25">
-        <v>1.957510671252626</v>
+        <v>6.259391830210967</v>
       </c>
       <c r="I25">
-        <v>80.00178928929729</v>
+        <v>255.8159981622194</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>21.96312010393522</v>
+        <v>70.22989788175336</v>
       </c>
       <c r="C26">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D26">
-        <v>13.97835550223998</v>
+        <v>44.69758735696497</v>
       </c>
       <c r="E26">
-        <v>4.16141658481005</v>
+        <v>13.30666409925428</v>
       </c>
       <c r="F26">
-        <v>8.658029076646256</v>
+        <v>27.68516016998744</v>
       </c>
       <c r="G26">
-        <v>24.72543513265058</v>
+        <v>79.06275502891042</v>
       </c>
       <c r="H26">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I26">
-        <v>75.79661165240425</v>
+        <v>242.3694024774508</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>22.88415417280993</v>
+        <v>73.17502263163335</v>
       </c>
       <c r="C27">
-        <v>1.64479401449488</v>
+        <v>5.25944014911604</v>
       </c>
       <c r="D27">
-        <v>13.46538832784585</v>
+        <v>43.057308921847</v>
       </c>
       <c r="E27">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F27">
-        <v>8.052323338773885</v>
+        <v>25.7483382650912</v>
       </c>
       <c r="G27">
-        <v>22.00992491576988</v>
+        <v>70.37956228007049</v>
       </c>
       <c r="H27">
-        <v>0.7690220494206744</v>
+        <v>2.459046790440023</v>
       </c>
       <c r="I27">
-        <v>73.5072004770264</v>
+        <v>235.0487161498592</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>24.23028088885757</v>
+        <v>77.47943572761179</v>
       </c>
       <c r="C28">
-        <v>1.566470489995124</v>
+        <v>5.008990618205752</v>
       </c>
       <c r="D28">
-        <v>13.72187191504291</v>
+        <v>43.877448139406</v>
       </c>
       <c r="E28">
-        <v>4.291460853085366</v>
+        <v>13.72249735235597</v>
       </c>
       <c r="F28">
-        <v>7.909804341627445</v>
+        <v>25.29261546393915</v>
       </c>
       <c r="G28">
-        <v>20.86655219287275</v>
+        <v>66.72348112266425</v>
       </c>
       <c r="H28">
-        <v>1.328310812635711</v>
+        <v>4.247444456214585</v>
       </c>
       <c r="I28">
-        <v>73.91475149411687</v>
+        <v>236.3519128803975</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>23.98939505545957</v>
+        <v>76.70917233148931</v>
       </c>
       <c r="C29">
-        <v>1.409823440995612</v>
+        <v>4.508091556385176</v>
       </c>
       <c r="D29">
-        <v>11.41351963026934</v>
+        <v>36.49619518137508</v>
       </c>
       <c r="E29">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F29">
-        <v>9.01432656951236</v>
+        <v>28.82446717286758</v>
       </c>
       <c r="G29">
-        <v>14.29215903621421</v>
+        <v>45.70101446757823</v>
       </c>
       <c r="H29">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I29">
-        <v>65.77957272598873</v>
+        <v>210.3386337364619</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>25.70393539905708</v>
+        <v>82.19163532741969</v>
       </c>
       <c r="C30">
-        <v>1.370661678745734</v>
+        <v>4.382866790930033</v>
       </c>
       <c r="D30">
-        <v>15.90198240621795</v>
+        <v>50.8486314886574</v>
       </c>
       <c r="E30">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="F30">
-        <v>8.337361333066767</v>
+        <v>26.65978386739531</v>
       </c>
       <c r="G30">
-        <v>17.29351243381919</v>
+        <v>55.29822750576968</v>
       </c>
       <c r="H30">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I30">
-        <v>74.39784651271967</v>
+        <v>237.8966712600404</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>26.92253432095286</v>
+        <v>86.08826191956862</v>
       </c>
       <c r="C31">
-        <v>1.448985203245489</v>
+        <v>4.63331632184032</v>
       </c>
       <c r="D31">
-        <v>15.13253164462676</v>
+        <v>48.38821383598044</v>
       </c>
       <c r="E31">
-        <v>4.551549389635993</v>
+        <v>14.55416385855936</v>
       </c>
       <c r="F31">
-        <v>8.087953088060495</v>
+        <v>25.86226896537922</v>
       </c>
       <c r="G31">
-        <v>14.86384539766278</v>
+        <v>47.52905504628138</v>
       </c>
       <c r="H31">
-        <v>1.118577526430072</v>
+        <v>3.576795331549124</v>
       </c>
       <c r="I31">
-        <v>72.12597657061445</v>
+        <v>230.6320752791585</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>30.60667059645167</v>
+        <v>97.86876091908853</v>
       </c>
       <c r="C32">
-        <v>1.096529342996587</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="D32">
-        <v>16.28670778701355</v>
+        <v>52.07884031499592</v>
       </c>
       <c r="E32">
-        <v>6.63225768204102</v>
+        <v>21.20749590818649</v>
       </c>
       <c r="F32">
-        <v>7.731655595194395</v>
+        <v>24.72296196249907</v>
       </c>
       <c r="G32">
-        <v>8.718217012090671</v>
+        <v>27.87761882522273</v>
       </c>
       <c r="H32">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="I32">
-        <v>72.54017101922737</v>
+        <v>231.956515235395</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>33.45479133251036</v>
+        <v>106.9759928379481</v>
       </c>
       <c r="C33">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D33">
-        <v>13.97835550223998</v>
+        <v>44.69758735696497</v>
       </c>
       <c r="E33">
-        <v>9.493231584097931</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="F33">
-        <v>5.629500387284398</v>
+        <v>18.00105064550624</v>
       </c>
       <c r="G33">
-        <v>6.717314747020679</v>
+        <v>21.47947679976178</v>
       </c>
       <c r="H33">
-        <v>0.4893776678131564</v>
+        <v>1.564847957552742</v>
       </c>
       <c r="I33">
-        <v>70.62412999046383</v>
+        <v>225.8297279141709</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>33.97907226402366</v>
+        <v>108.6524484648029</v>
       </c>
       <c r="C34">
-        <v>1.018205818496831</v>
+        <v>3.255843901833739</v>
       </c>
       <c r="D34">
-        <v>11.02879424947374</v>
+        <v>35.2659863550366</v>
       </c>
       <c r="E34">
-        <v>10.1434529254745</v>
+        <v>32.43499374193229</v>
       </c>
       <c r="F34">
-        <v>3.02852868936186</v>
+        <v>9.684109524481205</v>
       </c>
       <c r="G34">
-        <v>3.573039759053553</v>
+        <v>11.42525361689456</v>
       </c>
       <c r="H34">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I34">
-        <v>62.98082699208979</v>
+        <v>201.3892847296468</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>21.93478059412369</v>
+        <v>70.13927865868013</v>
       </c>
       <c r="C35">
-        <v>1.605632252245002</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="D35">
-        <v>6.668573267123657</v>
+        <v>21.32361965653375</v>
       </c>
       <c r="E35">
-        <v>8.3228331696201</v>
+        <v>26.61332819850855</v>
       </c>
       <c r="F35">
-        <v>1.389560222177795</v>
+        <v>4.443297311232553</v>
       </c>
       <c r="G35">
-        <v>2.715510216880701</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="H35">
-        <v>0.2796443816075181</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="I35">
-        <v>42.91653410377847</v>
+        <v>137.231130790343</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>18.90245304429006</v>
+        <v>60.4430217898445</v>
       </c>
       <c r="C36">
-        <v>1.762279301244514</v>
+        <v>5.63511444548147</v>
       </c>
       <c r="D36">
-        <v>5.51439712473687</v>
+        <v>17.6329931775183</v>
       </c>
       <c r="E36">
-        <v>7.152434755142275</v>
+        <v>22.87082892059329</v>
       </c>
       <c r="F36">
-        <v>1.674598216470675</v>
+        <v>5.354742913536665</v>
       </c>
       <c r="G36">
-        <v>2.286745445794274</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="H36">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I36">
-        <v>37.50264117388431</v>
+        <v>119.9195126864522</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>14.38230122935112</v>
+        <v>45.98925570966428</v>
       </c>
       <c r="C37">
-        <v>0.9790440562469523</v>
+        <v>3.130619136378595</v>
       </c>
       <c r="D37">
-        <v>4.744946363145679</v>
+        <v>15.17257552484132</v>
       </c>
       <c r="E37">
-        <v>5.851992072389135</v>
+        <v>18.71249638957633</v>
       </c>
       <c r="F37">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="G37">
-        <v>1.715059084345705</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="I37">
-        <v>28.81349478265012</v>
+        <v>92.13485090578638</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>10.51395814007738</v>
+        <v>33.61973176016837</v>
       </c>
       <c r="C38">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="D38">
-        <v>3.847253807955957</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="E38">
-        <v>2.86097390205691</v>
+        <v>9.148331568237312</v>
       </c>
       <c r="F38">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="G38">
-        <v>1.857980674707848</v>
+        <v>5.941131880785172</v>
       </c>
       <c r="H38">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I38">
-        <v>21.3475971781182</v>
+        <v>68.26168425730287</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>6.574766276274803</v>
+        <v>21.02365975298938</v>
       </c>
       <c r="C39">
-        <v>0.2741323357491466</v>
+        <v>0.8765733581860068</v>
       </c>
       <c r="D39">
-        <v>1.667143316780914</v>
+        <v>5.330904914133439</v>
       </c>
       <c r="E39">
-        <v>2.600885365506282</v>
+        <v>8.316665062033923</v>
       </c>
       <c r="F39">
-        <v>0.6413354871589821</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="G39">
-        <v>2.715510216880701</v>
+        <v>8.683192748839868</v>
       </c>
       <c r="H39">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I39">
-        <v>14.54368409375271</v>
+        <v>46.5052981495887</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>4.61934009927928</v>
+        <v>14.77093336093651</v>
       </c>
       <c r="C40">
-        <v>0.6265881959980495</v>
+        <v>2.003596247282301</v>
       </c>
       <c r="D40">
-        <v>1.154176142386787</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="E40">
-        <v>1.300442682753141</v>
+        <v>4.158332531016962</v>
       </c>
       <c r="F40">
-        <v>1.282670974317964</v>
+        <v>4.10150521036851</v>
       </c>
       <c r="G40">
-        <v>1.715059084345705</v>
+        <v>5.484121736109391</v>
       </c>
       <c r="H40">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I40">
-        <v>10.83809936988469</v>
+        <v>34.65621498117277</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>2.989818285116342</v>
+        <v>9.560328034225781</v>
       </c>
       <c r="C41">
-        <v>0.9398822939970746</v>
+        <v>3.005394370923451</v>
       </c>
       <c r="D41">
-        <v>0.3847253807955957</v>
+        <v>1.230208826338486</v>
       </c>
       <c r="F41">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G41">
-        <v>2.858431807242844</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="I41">
-        <v>8.099231248603719</v>
+        <v>25.89833233249173</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>1.927086667183994</v>
+        <v>6.162107168979647</v>
       </c>
       <c r="C42">
-        <v>0.6265881959980495</v>
+        <v>2.003596247282301</v>
       </c>
       <c r="D42">
-        <v>1.282417935985319</v>
+        <v>4.100696087794953</v>
       </c>
       <c r="F42">
-        <v>0.6413354871589821</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="G42">
-        <v>3.573039759053553</v>
+        <v>11.42525361689456</v>
       </c>
       <c r="I42">
-        <v>8.050468045379898</v>
+        <v>25.74240572613571</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>2.167972500581993</v>
+        <v>6.932370565102105</v>
       </c>
       <c r="C43">
-        <v>0.5482646714982933</v>
+        <v>1.753146716372014</v>
       </c>
       <c r="D43">
-        <v>1.154176142386787</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="E43">
-        <v>1.040354146202513</v>
+        <v>3.326666024813569</v>
       </c>
       <c r="F43">
-        <v>0.7838544843054223</v>
+        <v>2.506475406336311</v>
       </c>
       <c r="G43">
-        <v>3.430118168691411</v>
+        <v>10.96824347221878</v>
       </c>
       <c r="I43">
-        <v>9.124740113666419</v>
+        <v>29.17752866385824</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>3.868343089273753</v>
+        <v>12.36952394949592</v>
       </c>
       <c r="C44">
-        <v>0.3524558602489029</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="D44">
-        <v>2.564835871970639</v>
+        <v>8.201392175589906</v>
       </c>
       <c r="E44">
-        <v>0.5201770731012563</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="F44">
-        <v>1.603338717897455</v>
+        <v>5.126881512960638</v>
       </c>
       <c r="G44">
-        <v>4.430569301226404</v>
+        <v>14.16731448494926</v>
       </c>
       <c r="I44">
-        <v>13.33971991371841</v>
+        <v>42.6554680244988</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>9.309528973087385</v>
+        <v>29.7684147795561</v>
       </c>
       <c r="C45">
-        <v>0.2741323357491466</v>
+        <v>0.8765733581860068</v>
       </c>
       <c r="D45">
-        <v>5.51439712473687</v>
+        <v>17.6329931775183</v>
       </c>
       <c r="E45">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F45">
-        <v>2.850379942928809</v>
+        <v>9.11445602304113</v>
       </c>
       <c r="G45">
-        <v>6.431471566296396</v>
+        <v>20.56545651041021</v>
       </c>
       <c r="H45">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I45">
-        <v>29.27123688691555</v>
+        <v>93.59854008503827</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>17.69802387730006</v>
+        <v>56.59170480923222</v>
       </c>
       <c r="C46">
-        <v>0.3916176224987811</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="D46">
-        <v>11.79824501106493</v>
+        <v>37.72640400771357</v>
       </c>
       <c r="E46">
-        <v>12.48424975443015</v>
+        <v>39.91999229776283</v>
       </c>
       <c r="F46">
-        <v>4.881275652265585</v>
+        <v>15.60850593945794</v>
       </c>
       <c r="G46">
-        <v>11.14788404824709</v>
+        <v>35.64679128471104</v>
       </c>
       <c r="H46">
-        <v>0.7690220494206744</v>
+        <v>2.459046790440023</v>
       </c>
       <c r="I46">
-        <v>59.17031801522727</v>
+        <v>189.2046927838691</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>28.49537711549274</v>
+        <v>91.11762880013288</v>
       </c>
       <c r="C47">
-        <v>0.4307793847486591</v>
+        <v>1.377472420006582</v>
       </c>
       <c r="D47">
-        <v>9.233409139094297</v>
+        <v>29.52501183212367</v>
       </c>
       <c r="E47">
-        <v>12.35420548615484</v>
+        <v>39.50415904466112</v>
       </c>
       <c r="F47">
-        <v>5.700759885857619</v>
+        <v>18.22891204608226</v>
       </c>
       <c r="G47">
-        <v>14.14923744585207</v>
+        <v>45.24400432290248</v>
       </c>
       <c r="H47">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="I47">
-        <v>71.06287941121901</v>
+        <v>227.2326855481272</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>34.97095510742719</v>
+        <v>111.824121272366</v>
       </c>
       <c r="C48">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D48">
-        <v>13.46538832784585</v>
+        <v>43.057308921847</v>
       </c>
       <c r="E48">
-        <v>7.542567559968218</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="F48">
-        <v>6.983430860175583</v>
+        <v>22.33041725645077</v>
       </c>
       <c r="G48">
-        <v>17.29351243381919</v>
+        <v>55.29822750576968</v>
       </c>
       <c r="H48">
-        <v>1.538044098841349</v>
+        <v>4.918093580880046</v>
       </c>
       <c r="I48">
-        <v>82.6554571575747</v>
+        <v>264.301442057225</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>25.43471005584757</v>
+        <v>81.33075270822404</v>
       </c>
       <c r="C49">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="D49">
-        <v>18.8515436589842</v>
+        <v>60.28023249058579</v>
       </c>
       <c r="E49">
-        <v>7.542567559968218</v>
+        <v>24.11832867989837</v>
       </c>
       <c r="F49">
-        <v>7.838544843054225</v>
+        <v>25.06475406336311</v>
       </c>
       <c r="G49">
-        <v>23.01037604830488</v>
+        <v>73.57863329280097</v>
       </c>
       <c r="H49">
-        <v>2.167243957458265</v>
+        <v>6.930040954876427</v>
       </c>
       <c r="I49">
-        <v>86.37229485136261</v>
+        <v>276.1865080424993</v>
       </c>
     </row>
   </sheetData>
